--- a/data/trans_orig/P23-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P23-Habitat-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{978E2C17-430D-48BE-B565-97459F304393}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A85D5EAF-0DDC-4A56-A566-AAD7F308F5F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{DD7F2CCB-CA1F-4945-83CF-10C4AE858C65}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{0E23928D-B90C-4B60-B8D8-C560A74E4114}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="436">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="430">
   <si>
     <t>Población según consumo de tabaco en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -66,7 +66,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>No fuma ni ha fumado nunca de manera habitual</t>
@@ -75,28 +75,28 @@
     <t>28,32%</t>
   </si>
   <si>
-    <t>20,32%</t>
-  </si>
-  <si>
-    <t>37,7%</t>
+    <t>20,87%</t>
+  </si>
+  <si>
+    <t>38,11%</t>
   </si>
   <si>
     <t>71,27%</t>
   </si>
   <si>
-    <t>63,32%</t>
-  </si>
-  <si>
-    <t>78,92%</t>
+    <t>62,77%</t>
+  </si>
+  <si>
+    <t>78,72%</t>
   </si>
   <si>
     <t>49,55%</t>
   </si>
   <si>
-    <t>43,14%</t>
-  </si>
-  <si>
-    <t>56,58%</t>
+    <t>43,68%</t>
+  </si>
+  <si>
+    <t>56,88%</t>
   </si>
   <si>
     <t>No fuma pero ha fumado</t>
@@ -105,28 +105,28 @@
     <t>31,31%</t>
   </si>
   <si>
-    <t>23,32%</t>
-  </si>
-  <si>
-    <t>41,36%</t>
+    <t>23,55%</t>
+  </si>
+  <si>
+    <t>40,61%</t>
   </si>
   <si>
     <t>10,37%</t>
   </si>
   <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
   </si>
   <si>
     <t>20,96%</t>
   </si>
   <si>
-    <t>15,83%</t>
-  </si>
-  <si>
-    <t>26,72%</t>
+    <t>16,12%</t>
+  </si>
+  <si>
+    <t>27,0%</t>
   </si>
   <si>
     <t>Sí fuma pero no diariamente</t>
@@ -135,19 +135,16 @@
     <t>2,79%</t>
   </si>
   <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
   </si>
   <si>
     <t>2,13%</t>
   </si>
   <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
+    <t>0,0%</t>
   </si>
   <si>
     <t>2,46%</t>
@@ -156,7 +153,7 @@
     <t>0,82%</t>
   </si>
   <si>
-    <t>4,96%</t>
+    <t>4,84%</t>
   </si>
   <si>
     <t>Sí fuma diariamente</t>
@@ -165,1186 +162,1171 @@
     <t>37,58%</t>
   </si>
   <si>
-    <t>28,96%</t>
-  </si>
-  <si>
-    <t>46,97%</t>
+    <t>28,77%</t>
+  </si>
+  <si>
+    <t>46,39%</t>
   </si>
   <si>
     <t>16,23%</t>
   </si>
   <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>24,15%</t>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>23,4%</t>
   </si>
   <si>
     <t>27,03%</t>
   </si>
   <si>
-    <t>20,76%</t>
-  </si>
-  <si>
-    <t>32,8%</t>
+    <t>21,24%</t>
+  </si>
+  <si>
+    <t>33,15%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>36,37%</t>
   </si>
   <si>
-    <t>32,63%</t>
-  </si>
-  <si>
-    <t>40,27%</t>
+    <t>32,54%</t>
+  </si>
+  <si>
+    <t>40,42%</t>
   </si>
   <si>
     <t>70,14%</t>
   </si>
   <si>
-    <t>66,3%</t>
-  </si>
-  <si>
-    <t>73,81%</t>
+    <t>66,18%</t>
+  </si>
+  <si>
+    <t>73,73%</t>
   </si>
   <si>
     <t>53,21%</t>
   </si>
   <si>
-    <t>50,54%</t>
-  </si>
-  <si>
-    <t>56,04%</t>
+    <t>50,31%</t>
+  </si>
+  <si>
+    <t>56,03%</t>
   </si>
   <si>
     <t>16,5%</t>
   </si>
   <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>19,69%</t>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>19,6%</t>
   </si>
   <si>
     <t>5,34%</t>
   </si>
   <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
   </si>
   <si>
     <t>10,94%</t>
   </si>
   <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
   </si>
   <si>
     <t>2,48%</t>
   </si>
   <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
   </si>
   <si>
     <t>2,77%</t>
   </si>
   <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>44,65%</t>
+  </si>
+  <si>
+    <t>40,23%</t>
+  </si>
+  <si>
+    <t>48,54%</t>
+  </si>
+  <si>
+    <t>21,74%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>25,88%</t>
+  </si>
+  <si>
+    <t>33,23%</t>
+  </si>
+  <si>
+    <t>30,46%</t>
+  </si>
+  <si>
+    <t>35,82%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>38,06%</t>
+  </si>
+  <si>
+    <t>35,05%</t>
+  </si>
+  <si>
+    <t>41,28%</t>
+  </si>
+  <si>
+    <t>68,24%</t>
+  </si>
+  <si>
+    <t>64,96%</t>
+  </si>
+  <si>
+    <t>71,01%</t>
+  </si>
+  <si>
+    <t>50,98%</t>
+  </si>
+  <si>
+    <t>55,5%</t>
+  </si>
+  <si>
+    <t>19,66%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>22,05%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>39,58%</t>
+  </si>
+  <si>
+    <t>36,29%</t>
+  </si>
+  <si>
+    <t>42,82%</t>
+  </si>
+  <si>
+    <t>21,87%</t>
+  </si>
+  <si>
+    <t>19,29%</t>
+  </si>
+  <si>
+    <t>24,86%</t>
+  </si>
+  <si>
+    <t>30,69%</t>
+  </si>
+  <si>
+    <t>28,65%</t>
+  </si>
+  <si>
+    <t>32,88%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>42,78%</t>
+  </si>
+  <si>
+    <t>38,89%</t>
+  </si>
+  <si>
+    <t>46,37%</t>
+  </si>
+  <si>
+    <t>69,34%</t>
+  </si>
+  <si>
+    <t>65,54%</t>
+  </si>
+  <si>
+    <t>72,68%</t>
+  </si>
+  <si>
+    <t>56,11%</t>
+  </si>
+  <si>
+    <t>53,32%</t>
+  </si>
+  <si>
+    <t>58,63%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>16,99%</t>
+  </si>
+  <si>
+    <t>23,3%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>35,03%</t>
+  </si>
+  <si>
+    <t>31,41%</t>
+  </si>
+  <si>
+    <t>38,81%</t>
+  </si>
+  <si>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>19,32%</t>
+  </si>
+  <si>
+    <t>25,76%</t>
+  </si>
+  <si>
+    <t>28,69%</t>
+  </si>
+  <si>
+    <t>26,48%</t>
+  </si>
+  <si>
+    <t>31,21%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>38,39%</t>
+  </si>
+  <si>
+    <t>35,15%</t>
+  </si>
+  <si>
+    <t>41,48%</t>
+  </si>
+  <si>
+    <t>61,66%</t>
+  </si>
+  <si>
+    <t>58,39%</t>
+  </si>
+  <si>
+    <t>64,53%</t>
+  </si>
+  <si>
+    <t>50,59%</t>
+  </si>
+  <si>
+    <t>48,41%</t>
+  </si>
+  <si>
+    <t>52,93%</t>
+  </si>
+  <si>
+    <t>18,55%</t>
+  </si>
+  <si>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>21,06%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>40,39%</t>
+  </si>
+  <si>
+    <t>37,4%</t>
+  </si>
+  <si>
+    <t>43,49%</t>
+  </si>
+  <si>
+    <t>26,03%</t>
+  </si>
+  <si>
+    <t>23,24%</t>
+  </si>
+  <si>
+    <t>29,07%</t>
+  </si>
+  <si>
+    <t>32,86%</t>
+  </si>
+  <si>
+    <t>30,81%</t>
+  </si>
+  <si>
+    <t>35,08%</t>
+  </si>
+  <si>
+    <t>38,49%</t>
+  </si>
+  <si>
+    <t>36,75%</t>
+  </si>
+  <si>
+    <t>40,37%</t>
+  </si>
+  <si>
+    <t>66,87%</t>
+  </si>
+  <si>
+    <t>65,28%</t>
+  </si>
+  <si>
+    <t>68,5%</t>
+  </si>
+  <si>
+    <t>52,9%</t>
+  </si>
+  <si>
+    <t>51,61%</t>
+  </si>
+  <si>
+    <t>54,12%</t>
+  </si>
+  <si>
+    <t>19,22%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>20,62%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>39,7%</t>
+  </si>
+  <si>
+    <t>38,01%</t>
+  </si>
+  <si>
+    <t>41,3%</t>
+  </si>
+  <si>
+    <t>23,05%</t>
+  </si>
+  <si>
+    <t>21,64%</t>
+  </si>
+  <si>
+    <t>24,51%</t>
+  </si>
+  <si>
+    <t>31,24%</t>
+  </si>
+  <si>
+    <t>30,08%</t>
+  </si>
+  <si>
+    <t>32,39%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según consumo de tabaco en 2012 (Tasa respuesta: 99,95%)</t>
+  </si>
+  <si>
+    <t>32,91%</t>
+  </si>
+  <si>
+    <t>25,0%</t>
+  </si>
+  <si>
+    <t>42,17%</t>
+  </si>
+  <si>
+    <t>69,32%</t>
+  </si>
+  <si>
+    <t>59,37%</t>
+  </si>
+  <si>
+    <t>78,0%</t>
+  </si>
+  <si>
+    <t>50,81%</t>
+  </si>
+  <si>
+    <t>44,2%</t>
+  </si>
+  <si>
+    <t>57,87%</t>
+  </si>
+  <si>
+    <t>22,46%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>30,47%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>17,71%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>23,67%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>42,52%</t>
+  </si>
+  <si>
+    <t>33,26%</t>
+  </si>
+  <si>
+    <t>51,6%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>26,88%</t>
+  </si>
+  <si>
+    <t>30,41%</t>
+  </si>
+  <si>
+    <t>24,47%</t>
+  </si>
+  <si>
+    <t>36,19%</t>
+  </si>
+  <si>
+    <t>33,94%</t>
+  </si>
+  <si>
+    <t>29,73%</t>
+  </si>
+  <si>
+    <t>38,07%</t>
+  </si>
+  <si>
+    <t>65,64%</t>
+  </si>
+  <si>
+    <t>61,34%</t>
+  </si>
+  <si>
+    <t>69,77%</t>
+  </si>
+  <si>
+    <t>49,76%</t>
+  </si>
+  <si>
+    <t>46,57%</t>
+  </si>
+  <si>
+    <t>52,69%</t>
+  </si>
+  <si>
+    <t>28,98%</t>
+  </si>
+  <si>
+    <t>25,3%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>21,92%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>35,71%</t>
+  </si>
+  <si>
+    <t>31,48%</t>
+  </si>
+  <si>
+    <t>39,83%</t>
+  </si>
+  <si>
+    <t>21,94%</t>
+  </si>
+  <si>
+    <t>18,51%</t>
+  </si>
+  <si>
+    <t>25,69%</t>
+  </si>
+  <si>
+    <t>28,84%</t>
+  </si>
+  <si>
+    <t>26,26%</t>
+  </si>
+  <si>
+    <t>31,82%</t>
+  </si>
+  <si>
+    <t>34,78%</t>
+  </si>
+  <si>
+    <t>31,84%</t>
+  </si>
+  <si>
+    <t>38,28%</t>
+  </si>
+  <si>
+    <t>62,35%</t>
+  </si>
+  <si>
+    <t>59,05%</t>
+  </si>
+  <si>
+    <t>65,49%</t>
+  </si>
+  <si>
+    <t>48,67%</t>
+  </si>
+  <si>
+    <t>46,44%</t>
+  </si>
+  <si>
+    <t>50,9%</t>
+  </si>
+  <si>
+    <t>25,34%</t>
+  </si>
+  <si>
+    <t>22,25%</t>
+  </si>
+  <si>
+    <t>28,35%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>19,25%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>36,99%</t>
+  </si>
+  <si>
+    <t>34,01%</t>
+  </si>
+  <si>
+    <t>40,52%</t>
+  </si>
+  <si>
+    <t>26,06%</t>
+  </si>
+  <si>
+    <t>23,06%</t>
+  </si>
+  <si>
+    <t>29,19%</t>
+  </si>
+  <si>
+    <t>29,42%</t>
+  </si>
+  <si>
+    <t>33,77%</t>
+  </si>
+  <si>
+    <t>35,17%</t>
+  </si>
+  <si>
+    <t>31,68%</t>
+  </si>
+  <si>
+    <t>39,2%</t>
+  </si>
+  <si>
+    <t>56,56%</t>
+  </si>
+  <si>
+    <t>52,97%</t>
+  </si>
+  <si>
+    <t>60,17%</t>
+  </si>
+  <si>
+    <t>46,0%</t>
+  </si>
+  <si>
+    <t>48,63%</t>
+  </si>
+  <si>
+    <t>23,29%</t>
+  </si>
+  <si>
+    <t>20,07%</t>
+  </si>
+  <si>
+    <t>26,6%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>18,5%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>20,64%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>37,71%</t>
+  </si>
+  <si>
+    <t>34,02%</t>
+  </si>
+  <si>
+    <t>41,6%</t>
+  </si>
+  <si>
+    <t>26,83%</t>
+  </si>
+  <si>
+    <t>23,34%</t>
+  </si>
+  <si>
+    <t>30,33%</t>
+  </si>
+  <si>
+    <t>32,21%</t>
+  </si>
+  <si>
+    <t>29,9%</t>
+  </si>
+  <si>
+    <t>34,74%</t>
+  </si>
+  <si>
+    <t>39,48%</t>
+  </si>
+  <si>
+    <t>36,13%</t>
+  </si>
+  <si>
+    <t>42,57%</t>
+  </si>
+  <si>
+    <t>61,15%</t>
+  </si>
+  <si>
+    <t>58,15%</t>
+  </si>
+  <si>
+    <t>64,58%</t>
+  </si>
+  <si>
+    <t>50,87%</t>
+  </si>
+  <si>
+    <t>48,68%</t>
+  </si>
+  <si>
+    <t>53,29%</t>
+  </si>
+  <si>
+    <t>21,98%</t>
+  </si>
+  <si>
+    <t>24,94%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>17,81%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>35,68%</t>
+  </si>
+  <si>
+    <t>32,6%</t>
+  </si>
+  <si>
+    <t>39,04%</t>
+  </si>
+  <si>
+    <t>26,33%</t>
+  </si>
+  <si>
+    <t>29,22%</t>
+  </si>
+  <si>
+    <t>30,77%</t>
+  </si>
+  <si>
+    <t>28,51%</t>
+  </si>
+  <si>
+    <t>32,74%</t>
+  </si>
+  <si>
+    <t>35,96%</t>
+  </si>
+  <si>
+    <t>34,22%</t>
+  </si>
+  <si>
+    <t>37,73%</t>
+  </si>
+  <si>
+    <t>61,49%</t>
+  </si>
+  <si>
+    <t>59,84%</t>
+  </si>
+  <si>
+    <t>63,16%</t>
+  </si>
+  <si>
+    <t>48,96%</t>
+  </si>
+  <si>
+    <t>47,79%</t>
+  </si>
+  <si>
+    <t>50,2%</t>
+  </si>
+  <si>
+    <t>24,49%</t>
+  </si>
+  <si>
+    <t>22,96%</t>
+  </si>
+  <si>
+    <t>26,07%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>18,64%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
     <t>1,61%</t>
   </si>
   <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>44,65%</t>
-  </si>
-  <si>
-    <t>40,63%</t>
-  </si>
-  <si>
-    <t>48,8%</t>
-  </si>
-  <si>
-    <t>21,74%</t>
-  </si>
-  <si>
-    <t>18,48%</t>
-  </si>
-  <si>
-    <t>25,19%</t>
-  </si>
-  <si>
-    <t>33,23%</t>
-  </si>
-  <si>
-    <t>30,53%</t>
-  </si>
-  <si>
-    <t>35,96%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>38,06%</t>
-  </si>
-  <si>
-    <t>34,84%</t>
-  </si>
-  <si>
-    <t>41,13%</t>
-  </si>
-  <si>
-    <t>68,24%</t>
-  </si>
-  <si>
-    <t>65,1%</t>
-  </si>
-  <si>
-    <t>71,07%</t>
-  </si>
-  <si>
-    <t>50,92%</t>
-  </si>
-  <si>
-    <t>55,57%</t>
-  </si>
-  <si>
-    <t>19,66%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>22,57%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>39,58%</t>
-  </si>
-  <si>
-    <t>36,26%</t>
-  </si>
-  <si>
-    <t>43,02%</t>
-  </si>
-  <si>
-    <t>21,87%</t>
-  </si>
-  <si>
-    <t>19,36%</t>
-  </si>
-  <si>
-    <t>24,54%</t>
-  </si>
-  <si>
-    <t>30,69%</t>
-  </si>
-  <si>
-    <t>28,61%</t>
-  </si>
-  <si>
-    <t>32,84%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>42,78%</t>
-  </si>
-  <si>
-    <t>38,74%</t>
-  </si>
-  <si>
-    <t>46,44%</t>
-  </si>
-  <si>
-    <t>69,34%</t>
-  </si>
-  <si>
-    <t>65,66%</t>
-  </si>
-  <si>
-    <t>72,74%</t>
-  </si>
-  <si>
-    <t>56,11%</t>
-  </si>
-  <si>
-    <t>53,34%</t>
-  </si>
-  <si>
-    <t>58,77%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>22,96%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>35,03%</t>
-  </si>
-  <si>
-    <t>31,72%</t>
-  </si>
-  <si>
-    <t>38,91%</t>
-  </si>
-  <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>19,45%</t>
-  </si>
-  <si>
-    <t>25,74%</t>
-  </si>
-  <si>
-    <t>28,69%</t>
-  </si>
-  <si>
-    <t>26,29%</t>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>36,76%</t>
+  </si>
+  <si>
+    <t>34,95%</t>
+  </si>
+  <si>
+    <t>38,4%</t>
+  </si>
+  <si>
+    <t>25,37%</t>
+  </si>
+  <si>
+    <t>23,85%</t>
+  </si>
+  <si>
+    <t>26,84%</t>
   </si>
   <si>
     <t>30,96%</t>
   </si>
   <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>38,39%</t>
-  </si>
-  <si>
-    <t>35,63%</t>
-  </si>
-  <si>
-    <t>41,76%</t>
-  </si>
-  <si>
-    <t>61,66%</t>
-  </si>
-  <si>
-    <t>58,61%</t>
-  </si>
-  <si>
-    <t>64,5%</t>
-  </si>
-  <si>
-    <t>50,59%</t>
-  </si>
-  <si>
-    <t>48,31%</t>
-  </si>
-  <si>
-    <t>52,72%</t>
-  </si>
-  <si>
-    <t>18,55%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>21,33%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>40,39%</t>
-  </si>
-  <si>
-    <t>37,43%</t>
-  </si>
-  <si>
-    <t>43,68%</t>
-  </si>
-  <si>
-    <t>26,03%</t>
-  </si>
-  <si>
-    <t>23,53%</t>
-  </si>
-  <si>
-    <t>29,01%</t>
-  </si>
-  <si>
-    <t>32,86%</t>
-  </si>
-  <si>
-    <t>30,79%</t>
-  </si>
-  <si>
-    <t>34,77%</t>
-  </si>
-  <si>
-    <t>38,49%</t>
-  </si>
-  <si>
-    <t>36,73%</t>
-  </si>
-  <si>
-    <t>40,18%</t>
-  </si>
-  <si>
-    <t>66,87%</t>
-  </si>
-  <si>
-    <t>65,19%</t>
-  </si>
-  <si>
-    <t>68,42%</t>
-  </si>
-  <si>
-    <t>52,9%</t>
-  </si>
-  <si>
-    <t>51,64%</t>
-  </si>
-  <si>
-    <t>54,15%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
-  </si>
-  <si>
-    <t>17,95%</t>
-  </si>
-  <si>
-    <t>20,71%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>39,7%</t>
-  </si>
-  <si>
-    <t>37,85%</t>
-  </si>
-  <si>
-    <t>41,35%</t>
-  </si>
-  <si>
-    <t>23,05%</t>
-  </si>
-  <si>
-    <t>21,61%</t>
-  </si>
-  <si>
-    <t>24,48%</t>
-  </si>
-  <si>
-    <t>31,24%</t>
-  </si>
-  <si>
-    <t>30,01%</t>
-  </si>
-  <si>
-    <t>32,36%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según consumo de tabaco en 2012 (Tasa respuesta: 99,95%)</t>
-  </si>
-  <si>
-    <t>32,91%</t>
-  </si>
-  <si>
-    <t>25,08%</t>
-  </si>
-  <si>
-    <t>41,94%</t>
-  </si>
-  <si>
-    <t>69,32%</t>
-  </si>
-  <si>
-    <t>58,22%</t>
-  </si>
-  <si>
-    <t>78,48%</t>
-  </si>
-  <si>
-    <t>50,81%</t>
-  </si>
-  <si>
-    <t>43,79%</t>
-  </si>
-  <si>
-    <t>57,48%</t>
-  </si>
-  <si>
-    <t>22,46%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>29,68%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>21,11%</t>
-  </si>
-  <si>
-    <t>17,71%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>23,0%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>42,52%</t>
-  </si>
-  <si>
-    <t>33,85%</t>
-  </si>
-  <si>
-    <t>53,01%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>27,22%</t>
-  </si>
-  <si>
-    <t>30,41%</t>
-  </si>
-  <si>
-    <t>24,27%</t>
-  </si>
-  <si>
-    <t>37,57%</t>
-  </si>
-  <si>
-    <t>33,94%</t>
-  </si>
-  <si>
-    <t>30,02%</t>
-  </si>
-  <si>
-    <t>37,87%</t>
-  </si>
-  <si>
-    <t>65,64%</t>
-  </si>
-  <si>
-    <t>61,47%</t>
-  </si>
-  <si>
-    <t>69,35%</t>
-  </si>
-  <si>
-    <t>49,76%</t>
-  </si>
-  <si>
-    <t>47,06%</t>
-  </si>
-  <si>
-    <t>52,88%</t>
-  </si>
-  <si>
-    <t>28,98%</t>
-  </si>
-  <si>
-    <t>25,32%</t>
-  </si>
-  <si>
-    <t>33,03%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>21,84%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>35,71%</t>
-  </si>
-  <si>
-    <t>31,55%</t>
-  </si>
-  <si>
-    <t>39,45%</t>
-  </si>
-  <si>
-    <t>21,94%</t>
-  </si>
-  <si>
-    <t>25,78%</t>
-  </si>
-  <si>
-    <t>28,84%</t>
-  </si>
-  <si>
-    <t>26,01%</t>
-  </si>
-  <si>
-    <t>31,49%</t>
-  </si>
-  <si>
-    <t>34,78%</t>
-  </si>
-  <si>
-    <t>31,96%</t>
-  </si>
-  <si>
-    <t>37,91%</t>
-  </si>
-  <si>
-    <t>62,35%</t>
-  </si>
-  <si>
-    <t>59,22%</t>
-  </si>
-  <si>
-    <t>65,51%</t>
-  </si>
-  <si>
-    <t>48,67%</t>
-  </si>
-  <si>
-    <t>46,35%</t>
-  </si>
-  <si>
-    <t>50,72%</t>
-  </si>
-  <si>
-    <t>25,34%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>28,75%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>19,23%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>36,99%</t>
-  </si>
-  <si>
-    <t>33,79%</t>
-  </si>
-  <si>
-    <t>40,11%</t>
-  </si>
-  <si>
-    <t>26,06%</t>
-  </si>
-  <si>
-    <t>23,24%</t>
-  </si>
-  <si>
-    <t>28,9%</t>
-  </si>
-  <si>
-    <t>31,48%</t>
-  </si>
-  <si>
-    <t>29,47%</t>
-  </si>
-  <si>
-    <t>33,65%</t>
-  </si>
-  <si>
-    <t>35,17%</t>
-  </si>
-  <si>
-    <t>31,44%</t>
-  </si>
-  <si>
-    <t>38,75%</t>
-  </si>
-  <si>
-    <t>56,56%</t>
-  </si>
-  <si>
-    <t>52,6%</t>
-  </si>
-  <si>
-    <t>60,13%</t>
-  </si>
-  <si>
-    <t>46,0%</t>
-  </si>
-  <si>
-    <t>43,55%</t>
-  </si>
-  <si>
-    <t>48,89%</t>
-  </si>
-  <si>
-    <t>23,29%</t>
-  </si>
-  <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>27,0%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>18,5%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>20,62%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>37,71%</t>
-  </si>
-  <si>
-    <t>33,7%</t>
-  </si>
-  <si>
-    <t>41,81%</t>
-  </si>
-  <si>
-    <t>26,83%</t>
-  </si>
-  <si>
-    <t>23,87%</t>
-  </si>
-  <si>
-    <t>30,61%</t>
-  </si>
-  <si>
-    <t>32,21%</t>
-  </si>
-  <si>
-    <t>29,65%</t>
-  </si>
-  <si>
-    <t>34,67%</t>
-  </si>
-  <si>
-    <t>39,48%</t>
-  </si>
-  <si>
-    <t>36,51%</t>
-  </si>
-  <si>
-    <t>43,01%</t>
-  </si>
-  <si>
-    <t>61,15%</t>
-  </si>
-  <si>
-    <t>58,01%</t>
-  </si>
-  <si>
-    <t>63,98%</t>
-  </si>
-  <si>
-    <t>50,87%</t>
-  </si>
-  <si>
-    <t>48,86%</t>
-  </si>
-  <si>
-    <t>53,24%</t>
-  </si>
-  <si>
-    <t>21,98%</t>
-  </si>
-  <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>25,02%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>17,72%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>35,68%</t>
-  </si>
-  <si>
-    <t>32,7%</t>
-  </si>
-  <si>
-    <t>38,85%</t>
-  </si>
-  <si>
-    <t>26,33%</t>
-  </si>
-  <si>
-    <t>23,7%</t>
-  </si>
-  <si>
-    <t>29,43%</t>
-  </si>
-  <si>
-    <t>30,77%</t>
-  </si>
-  <si>
-    <t>28,63%</t>
-  </si>
-  <si>
-    <t>32,88%</t>
-  </si>
-  <si>
-    <t>34,52%</t>
-  </si>
-  <si>
-    <t>37,84%</t>
-  </si>
-  <si>
-    <t>61,49%</t>
-  </si>
-  <si>
-    <t>59,8%</t>
-  </si>
-  <si>
-    <t>63,33%</t>
-  </si>
-  <si>
-    <t>48,96%</t>
-  </si>
-  <si>
-    <t>47,8%</t>
-  </si>
-  <si>
-    <t>50,27%</t>
-  </si>
-  <si>
-    <t>24,49%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
-  </si>
-  <si>
-    <t>25,92%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>36,76%</t>
-  </si>
-  <si>
-    <t>35,01%</t>
-  </si>
-  <si>
-    <t>38,25%</t>
-  </si>
-  <si>
-    <t>25,37%</t>
-  </si>
-  <si>
-    <t>23,76%</t>
-  </si>
-  <si>
-    <t>26,95%</t>
-  </si>
-  <si>
-    <t>29,8%</t>
-  </si>
-  <si>
-    <t>32,11%</t>
+    <t>29,89%</t>
+  </si>
+  <si>
+    <t>32,13%</t>
   </si>
 </sst>
 </file>
@@ -1756,7 +1738,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A5235B7-16AD-47DF-93B3-B635844479B3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D03686BA-CD0C-48E5-A554-4FFA6BFADCA9}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2003,7 +1985,7 @@
         <v>35</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="M6" s="7">
         <v>6</v>
@@ -2012,19 +1994,19 @@
         <v>5615</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C7" s="7">
         <v>40</v>
@@ -2033,13 +2015,13 @@
         <v>43356</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="H7" s="7">
         <v>20</v>
@@ -2048,13 +2030,13 @@
         <v>18299</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="M7" s="7">
         <v>60</v>
@@ -2063,13 +2045,13 @@
         <v>61654</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2084,13 +2066,13 @@
         <v>115358</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H8" s="7">
         <v>128</v>
@@ -2099,13 +2081,13 @@
         <v>112755</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M8" s="7">
         <v>233</v>
@@ -2114,18 +2096,18 @@
         <v>228113</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -2137,13 +2119,13 @@
         <v>210467</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>54</v>
       </c>
       <c r="H9" s="7">
         <v>399</v>
@@ -2152,13 +2134,13 @@
         <v>403736</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>57</v>
       </c>
       <c r="M9" s="7">
         <v>611</v>
@@ -2167,13 +2149,13 @@
         <v>614203</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2188,13 +2170,13 @@
         <v>95477</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>63</v>
       </c>
       <c r="H10" s="7">
         <v>30</v>
@@ -2203,13 +2185,13 @@
         <v>30759</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="M10" s="7">
         <v>129</v>
@@ -2218,13 +2200,13 @@
         <v>126236</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2239,13 +2221,13 @@
         <v>14355</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H11" s="7">
         <v>16</v>
@@ -2254,13 +2236,13 @@
         <v>15953</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M11" s="7">
         <v>30</v>
@@ -2269,19 +2251,19 @@
         <v>30309</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C12" s="7">
         <v>253</v>
@@ -2290,13 +2272,13 @@
         <v>258354</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H12" s="7">
         <v>123</v>
@@ -2305,13 +2287,13 @@
         <v>125148</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M12" s="7">
         <v>376</v>
@@ -2320,13 +2302,13 @@
         <v>383502</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2341,13 +2323,13 @@
         <v>578654</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H13" s="7">
         <v>568</v>
@@ -2356,13 +2338,13 @@
         <v>575596</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M13" s="7">
         <v>1146</v>
@@ -2371,18 +2353,18 @@
         <v>1154250</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -2394,13 +2376,13 @@
         <v>365621</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H14" s="7">
         <v>618</v>
@@ -2409,13 +2391,13 @@
         <v>660878</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M14" s="7">
         <v>957</v>
@@ -2424,13 +2406,13 @@
         <v>1026499</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P14" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2445,13 +2427,13 @@
         <v>188856</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="G15" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="H15" s="7">
         <v>75</v>
@@ -2460,13 +2442,13 @@
         <v>80380</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K15" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="L15" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="M15" s="7">
         <v>253</v>
@@ -2475,13 +2457,13 @@
         <v>269236</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P15" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="Q15" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2496,13 +2478,13 @@
         <v>26037</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="H16" s="7">
         <v>16</v>
@@ -2511,13 +2493,13 @@
         <v>15320</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="M16" s="7">
         <v>41</v>
@@ -2526,19 +2508,19 @@
         <v>41357</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C17" s="7">
         <v>353</v>
@@ -2547,13 +2529,13 @@
         <v>380244</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="H17" s="7">
         <v>199</v>
@@ -2562,13 +2544,13 @@
         <v>211816</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="M17" s="7">
         <v>552</v>
@@ -2577,13 +2559,13 @@
         <v>592059</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2598,13 +2580,13 @@
         <v>960758</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H18" s="7">
         <v>908</v>
@@ -2613,13 +2595,13 @@
         <v>968393</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M18" s="7">
         <v>1803</v>
@@ -2628,18 +2610,18 @@
         <v>1929151</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2651,13 +2633,13 @@
         <v>290232</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="H19" s="7">
         <v>479</v>
@@ -2666,13 +2648,13 @@
         <v>474157</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="M19" s="7">
         <v>752</v>
@@ -2681,13 +2663,13 @@
         <v>764389</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2702,13 +2684,13 @@
         <v>134301</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="H20" s="7">
         <v>41</v>
@@ -2717,13 +2699,13 @@
         <v>39683</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="M20" s="7">
         <v>171</v>
@@ -2732,13 +2714,13 @@
         <v>173984</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2753,13 +2735,13 @@
         <v>16269</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="H21" s="7">
         <v>18</v>
@@ -2768,13 +2750,13 @@
         <v>16853</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="M21" s="7">
         <v>34</v>
@@ -2783,19 +2765,19 @@
         <v>33122</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C22" s="7">
         <v>222</v>
@@ -2804,13 +2786,13 @@
         <v>237706</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="H22" s="7">
         <v>158</v>
@@ -2819,13 +2801,13 @@
         <v>153148</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="M22" s="7">
         <v>380</v>
@@ -2834,13 +2816,13 @@
         <v>390854</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2855,13 +2837,13 @@
         <v>678509</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H23" s="7">
         <v>696</v>
@@ -2870,13 +2852,13 @@
         <v>683841</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M23" s="7">
         <v>1337</v>
@@ -2885,18 +2867,18 @@
         <v>1362350</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2908,13 +2890,13 @@
         <v>361682</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="H24" s="7">
         <v>615</v>
@@ -2923,13 +2905,13 @@
         <v>640389</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="M24" s="7">
         <v>1000</v>
@@ -2938,13 +2920,13 @@
         <v>1002071</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2959,13 +2941,13 @@
         <v>174795</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="H25" s="7">
         <v>90</v>
@@ -2974,13 +2956,13 @@
         <v>93829</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="M25" s="7">
         <v>276</v>
@@ -2989,13 +2971,13 @@
         <v>268624</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3010,13 +2992,13 @@
         <v>25161</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>179</v>
+        <v>109</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>77</v>
+        <v>176</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="H26" s="7">
         <v>32</v>
@@ -3025,13 +3007,13 @@
         <v>33993</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="M26" s="7">
         <v>58</v>
@@ -3040,19 +3022,19 @@
         <v>59153</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C27" s="7">
         <v>397</v>
@@ -3061,13 +3043,13 @@
         <v>380584</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="H27" s="7">
         <v>260</v>
@@ -3076,13 +3058,13 @@
         <v>270402</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="M27" s="7">
         <v>657</v>
@@ -3091,13 +3073,13 @@
         <v>650986</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -3112,13 +3094,13 @@
         <v>942222</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H28" s="7">
         <v>997</v>
@@ -3127,13 +3109,13 @@
         <v>1038612</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M28" s="7">
         <v>1991</v>
@@ -3142,13 +3124,13 @@
         <v>1980834</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3165,13 +3147,13 @@
         <v>1260667</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="H29" s="7">
         <v>2204</v>
@@ -3180,13 +3162,13 @@
         <v>2259524</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="M29" s="7">
         <v>3442</v>
@@ -3195,13 +3177,13 @@
         <v>3520191</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3216,13 +3198,13 @@
         <v>629553</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="H30" s="7">
         <v>248</v>
@@ -3231,13 +3213,13 @@
         <v>256344</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="M30" s="7">
         <v>874</v>
@@ -3246,13 +3228,13 @@
         <v>885897</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3267,13 +3249,13 @@
         <v>85037</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="H31" s="7">
         <v>85</v>
@@ -3282,13 +3264,13 @@
         <v>84519</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="M31" s="7">
         <v>169</v>
@@ -3297,19 +3279,19 @@
         <v>169556</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>184</v>
+        <v>219</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C32" s="7">
         <v>1265</v>
@@ -3318,13 +3300,13 @@
         <v>1300244</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>224</v>
       </c>
       <c r="H32" s="7">
         <v>760</v>
@@ -3333,13 +3315,13 @@
         <v>778812</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>227</v>
       </c>
       <c r="M32" s="7">
         <v>2025</v>
@@ -3348,13 +3330,13 @@
         <v>2079056</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3369,13 +3351,13 @@
         <v>3275501</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H33" s="7">
         <v>3297</v>
@@ -3384,13 +3366,13 @@
         <v>3379198</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M33" s="7">
         <v>6510</v>
@@ -3399,18 +3381,18 @@
         <v>6654699</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>
@@ -3431,7 +3413,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E5F9D06-6EC3-4C41-B572-A37E2F22E921}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C30D2DFF-726B-4A0C-A278-E860E85EB13E}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3448,7 +3430,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3555,13 +3537,13 @@
         <v>38099</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>235</v>
       </c>
       <c r="H4" s="7">
         <v>70</v>
@@ -3570,13 +3552,13 @@
         <v>77571</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>238</v>
       </c>
       <c r="M4" s="7">
         <v>110</v>
@@ -3585,13 +3567,13 @@
         <v>115670</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3606,13 +3588,13 @@
         <v>26006</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>244</v>
       </c>
       <c r="H5" s="7">
         <v>12</v>
@@ -3621,13 +3603,13 @@
         <v>14316</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>245</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>247</v>
       </c>
       <c r="M5" s="7">
         <v>42</v>
@@ -3636,13 +3618,13 @@
         <v>40322</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3657,13 +3639,13 @@
         <v>2435</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>253</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -3672,13 +3654,13 @@
         <v>0</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>254</v>
+        <v>35</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="M6" s="7">
         <v>3</v>
@@ -3687,19 +3669,19 @@
         <v>2435</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C7" s="7">
         <v>49</v>
@@ -3708,13 +3690,13 @@
         <v>49225</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="H7" s="7">
         <v>17</v>
@@ -3723,13 +3705,13 @@
         <v>20018</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="M7" s="7">
         <v>66</v>
@@ -3738,13 +3720,13 @@
         <v>69243</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3759,13 +3741,13 @@
         <v>115765</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H8" s="7">
         <v>99</v>
@@ -3774,13 +3756,13 @@
         <v>111905</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M8" s="7">
         <v>221</v>
@@ -3789,18 +3771,18 @@
         <v>227670</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -3812,13 +3794,13 @@
         <v>199478</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="H9" s="7">
         <v>363</v>
@@ -3827,13 +3809,13 @@
         <v>384099</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="M9" s="7">
         <v>552</v>
@@ -3842,13 +3824,13 @@
         <v>583577</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3863,13 +3845,13 @@
         <v>170304</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>280</v>
+        <v>48</v>
       </c>
       <c r="H10" s="7">
         <v>57</v>
@@ -3878,13 +3860,13 @@
         <v>59223</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="M10" s="7">
         <v>212</v>
@@ -3893,13 +3875,13 @@
         <v>229527</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3914,13 +3896,13 @@
         <v>8027</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="H11" s="7">
         <v>12</v>
@@ -3929,13 +3911,13 @@
         <v>13422</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>292</v>
+        <v>136</v>
       </c>
       <c r="M11" s="7">
         <v>20</v>
@@ -3944,19 +3926,19 @@
         <v>21449</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C12" s="7">
         <v>200</v>
@@ -3965,13 +3947,13 @@
         <v>209896</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="H12" s="7">
         <v>119</v>
@@ -3980,13 +3962,13 @@
         <v>128400</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>83</v>
+        <v>295</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="M12" s="7">
         <v>319</v>
@@ -3995,13 +3977,13 @@
         <v>338296</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4016,13 +3998,13 @@
         <v>587704</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H13" s="7">
         <v>551</v>
@@ -4031,13 +4013,13 @@
         <v>585145</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M13" s="7">
         <v>1103</v>
@@ -4046,18 +4028,18 @@
         <v>1172849</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -4069,13 +4051,13 @@
         <v>353707</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="H14" s="7">
         <v>585</v>
@@ -4084,13 +4066,13 @@
         <v>643516</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="M14" s="7">
         <v>913</v>
@@ -4099,13 +4081,13 @@
         <v>997223</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4120,13 +4102,13 @@
         <v>257713</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="H15" s="7">
         <v>90</v>
@@ -4135,13 +4117,13 @@
         <v>98321</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="M15" s="7">
         <v>326</v>
@@ -4150,13 +4132,13 @@
         <v>356033</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4171,13 +4153,13 @@
         <v>29356</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>295</v>
+        <v>318</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>322</v>
+        <v>253</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="H16" s="7">
         <v>19</v>
@@ -4186,13 +4168,13 @@
         <v>21379</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>215</v>
+        <v>320</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="M16" s="7">
         <v>45</v>
@@ -4201,19 +4183,19 @@
         <v>50736</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C17" s="7">
         <v>345</v>
@@ -4222,13 +4204,13 @@
         <v>376142</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="H17" s="7">
         <v>246</v>
@@ -4237,13 +4219,13 @@
         <v>268968</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="M17" s="7">
         <v>591</v>
@@ -4252,13 +4234,13 @@
         <v>645110</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>334</v>
+        <v>292</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4273,13 +4255,13 @@
         <v>1016918</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H18" s="7">
         <v>940</v>
@@ -4288,13 +4270,13 @@
         <v>1032184</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M18" s="7">
         <v>1875</v>
@@ -4303,18 +4285,18 @@
         <v>2049102</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4326,13 +4308,13 @@
         <v>266459</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="H19" s="7">
         <v>403</v>
@@ -4341,13 +4323,13 @@
         <v>439041</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="M19" s="7">
         <v>649</v>
@@ -4356,13 +4338,13 @@
         <v>705500</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>344</v>
+        <v>186</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4377,13 +4359,13 @@
         <v>176487</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="H20" s="7">
         <v>95</v>
@@ -4392,13 +4374,13 @@
         <v>107241</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="M20" s="7">
         <v>253</v>
@@ -4407,13 +4389,13 @@
         <v>283728</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4428,13 +4410,13 @@
         <v>28977</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>356</v>
+        <v>145</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="H21" s="7">
         <v>19</v>
@@ -4446,10 +4428,10 @@
         <v>31</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="M21" s="7">
         <v>45</v>
@@ -4458,19 +4440,19 @@
         <v>50597</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>37</v>
+        <v>355</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C22" s="7">
         <v>259</v>
@@ -4479,13 +4461,13 @@
         <v>285700</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="H22" s="7">
         <v>187</v>
@@ -4494,13 +4476,13 @@
         <v>208276</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="M22" s="7">
         <v>446</v>
@@ -4509,13 +4491,13 @@
         <v>493976</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4530,13 +4512,13 @@
         <v>757623</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H23" s="7">
         <v>704</v>
@@ -4545,13 +4527,13 @@
         <v>776178</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M23" s="7">
         <v>1393</v>
@@ -4560,18 +4542,18 @@
         <v>1533801</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -4583,13 +4565,13 @@
         <v>374131</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="H24" s="7">
         <v>617</v>
@@ -4598,13 +4580,13 @@
         <v>642609</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="M24" s="7">
         <v>975</v>
@@ -4613,13 +4595,13 @@
         <v>1016740</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4634,13 +4616,13 @@
         <v>208329</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>381</v>
+        <v>152</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="H25" s="7">
         <v>106</v>
@@ -4649,13 +4631,13 @@
         <v>114120</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>283</v>
+        <v>379</v>
       </c>
       <c r="M25" s="7">
         <v>304</v>
@@ -4664,13 +4646,13 @@
         <v>322449</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4685,13 +4667,13 @@
         <v>27106</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>388</v>
+        <v>290</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>322</v>
+        <v>383</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>323</v>
+        <v>384</v>
       </c>
       <c r="H26" s="7">
         <v>17</v>
@@ -4700,13 +4682,13 @@
         <v>17439</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>391</v>
+        <v>211</v>
       </c>
       <c r="M26" s="7">
         <v>44</v>
@@ -4715,19 +4697,19 @@
         <v>44544</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C27" s="7">
         <v>327</v>
@@ -4736,13 +4718,13 @@
         <v>338173</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="H27" s="7">
         <v>262</v>
@@ -4751,13 +4733,13 @@
         <v>276748</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>399</v>
+        <v>45</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="M27" s="7">
         <v>589</v>
@@ -4766,13 +4748,13 @@
         <v>614920</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -4787,13 +4769,13 @@
         <v>947739</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H28" s="7">
         <v>1002</v>
@@ -4802,13 +4784,13 @@
         <v>1050915</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M28" s="7">
         <v>1912</v>
@@ -4817,13 +4799,13 @@
         <v>1998654</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4840,13 +4822,13 @@
         <v>1231874</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>87</v>
+        <v>398</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="H29" s="7">
         <v>2038</v>
@@ -4855,13 +4837,13 @@
         <v>2186836</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="M29" s="7">
         <v>3199</v>
@@ -4870,13 +4852,13 @@
         <v>3418710</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4891,13 +4873,13 @@
         <v>838839</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="H30" s="7">
         <v>360</v>
@@ -4906,13 +4888,13 @@
         <v>393221</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>141</v>
+        <v>410</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="M30" s="7">
         <v>1137</v>
@@ -4921,13 +4903,13 @@
         <v>1232059</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4942,13 +4924,13 @@
         <v>95901</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>421</v>
+        <v>286</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="H31" s="7">
         <v>67</v>
@@ -4957,13 +4939,13 @@
         <v>73860</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>425</v>
+        <v>211</v>
       </c>
       <c r="M31" s="7">
         <v>157</v>
@@ -4972,19 +4954,19 @@
         <v>169761</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>426</v>
+        <v>320</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C32" s="7">
         <v>1180</v>
@@ -4993,13 +4975,13 @@
         <v>1259135</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="H32" s="7">
         <v>831</v>
@@ -5008,13 +4990,13 @@
         <v>902410</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="M32" s="7">
         <v>2011</v>
@@ -5023,13 +5005,13 @@
         <v>2161546</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>159</v>
+        <v>427</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5044,13 +5026,13 @@
         <v>3425749</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H33" s="7">
         <v>3296</v>
@@ -5059,13 +5041,13 @@
         <v>3556327</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M33" s="7">
         <v>6504</v>
@@ -5074,18 +5056,18 @@
         <v>6982076</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P23-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P23-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A85D5EAF-0DDC-4A56-A566-AAD7F308F5F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{64EC0215-18C7-4C2A-92E3-F8F5CD82F0AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{0E23928D-B90C-4B60-B8D8-C560A74E4114}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9EC66A25-F988-41EA-AA73-2DC21F5BF613}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="430">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="436">
   <si>
     <t>Población según consumo de tabaco en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -75,28 +75,28 @@
     <t>28,32%</t>
   </si>
   <si>
-    <t>20,87%</t>
-  </si>
-  <si>
-    <t>38,11%</t>
+    <t>20,07%</t>
+  </si>
+  <si>
+    <t>37,46%</t>
   </si>
   <si>
     <t>71,27%</t>
   </si>
   <si>
-    <t>62,77%</t>
-  </si>
-  <si>
-    <t>78,72%</t>
+    <t>62,37%</t>
+  </si>
+  <si>
+    <t>78,49%</t>
   </si>
   <si>
     <t>49,55%</t>
   </si>
   <si>
-    <t>43,68%</t>
-  </si>
-  <si>
-    <t>56,88%</t>
+    <t>43,42%</t>
+  </si>
+  <si>
+    <t>56,39%</t>
   </si>
   <si>
     <t>No fuma pero ha fumado</t>
@@ -105,28 +105,28 @@
     <t>31,31%</t>
   </si>
   <si>
-    <t>23,55%</t>
-  </si>
-  <si>
-    <t>40,61%</t>
+    <t>23,5%</t>
+  </si>
+  <si>
+    <t>40,99%</t>
   </si>
   <si>
     <t>10,37%</t>
   </si>
   <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>17,14%</t>
   </si>
   <si>
     <t>20,96%</t>
   </si>
   <si>
-    <t>16,12%</t>
-  </si>
-  <si>
-    <t>27,0%</t>
+    <t>15,97%</t>
+  </si>
+  <si>
+    <t>27,14%</t>
   </si>
   <si>
     <t>Sí fuma pero no diariamente</t>
@@ -135,1198 +135,1216 @@
     <t>2,79%</t>
   </si>
   <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>Sí fuma diariamente</t>
+  </si>
+  <si>
+    <t>37,58%</t>
+  </si>
+  <si>
+    <t>29,21%</t>
+  </si>
+  <si>
+    <t>47,44%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>23,11%</t>
+  </si>
+  <si>
+    <t>27,03%</t>
+  </si>
+  <si>
+    <t>21,54%</t>
+  </si>
+  <si>
+    <t>33,48%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>36,37%</t>
+  </si>
+  <si>
+    <t>32,72%</t>
+  </si>
+  <si>
+    <t>40,55%</t>
+  </si>
+  <si>
+    <t>70,14%</t>
+  </si>
+  <si>
+    <t>65,97%</t>
+  </si>
+  <si>
+    <t>73,82%</t>
+  </si>
+  <si>
+    <t>53,21%</t>
+  </si>
+  <si>
+    <t>50,4%</t>
+  </si>
+  <si>
+    <t>56,16%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>19,6%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>44,65%</t>
+  </si>
+  <si>
+    <t>40,38%</t>
+  </si>
+  <si>
+    <t>48,54%</t>
+  </si>
+  <si>
+    <t>21,74%</t>
+  </si>
+  <si>
+    <t>18,5%</t>
+  </si>
+  <si>
+    <t>25,53%</t>
+  </si>
+  <si>
+    <t>33,23%</t>
+  </si>
+  <si>
+    <t>30,62%</t>
+  </si>
+  <si>
+    <t>35,75%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>38,06%</t>
+  </si>
+  <si>
+    <t>34,87%</t>
+  </si>
+  <si>
+    <t>41,28%</t>
+  </si>
+  <si>
+    <t>68,24%</t>
+  </si>
+  <si>
+    <t>65,33%</t>
+  </si>
+  <si>
+    <t>71,53%</t>
+  </si>
+  <si>
+    <t>50,81%</t>
+  </si>
+  <si>
+    <t>55,59%</t>
+  </si>
+  <si>
+    <t>19,66%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>22,71%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
     <t>0,9%</t>
   </si>
   <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>39,58%</t>
+  </si>
+  <si>
+    <t>35,99%</t>
+  </si>
+  <si>
+    <t>42,54%</t>
+  </si>
+  <si>
+    <t>21,87%</t>
+  </si>
+  <si>
+    <t>19,02%</t>
+  </si>
+  <si>
+    <t>24,36%</t>
+  </si>
+  <si>
+    <t>30,69%</t>
+  </si>
+  <si>
+    <t>28,54%</t>
+  </si>
+  <si>
+    <t>33,02%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>42,78%</t>
+  </si>
+  <si>
+    <t>38,61%</t>
+  </si>
+  <si>
+    <t>46,66%</t>
+  </si>
+  <si>
+    <t>69,34%</t>
+  </si>
+  <si>
+    <t>65,36%</t>
+  </si>
+  <si>
+    <t>72,31%</t>
+  </si>
+  <si>
+    <t>56,11%</t>
+  </si>
+  <si>
+    <t>53,71%</t>
+  </si>
+  <si>
+    <t>59,24%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>23,36%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>35,03%</t>
+  </si>
+  <si>
+    <t>31,45%</t>
+  </si>
+  <si>
+    <t>39,16%</t>
+  </si>
+  <si>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>25,99%</t>
+  </si>
+  <si>
+    <t>28,69%</t>
+  </si>
+  <si>
+    <t>26,26%</t>
+  </si>
+  <si>
+    <t>31,15%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>38,39%</t>
+  </si>
+  <si>
+    <t>35,06%</t>
+  </si>
+  <si>
+    <t>41,48%</t>
+  </si>
+  <si>
+    <t>61,66%</t>
+  </si>
+  <si>
+    <t>58,51%</t>
+  </si>
+  <si>
+    <t>64,71%</t>
+  </si>
+  <si>
+    <t>50,59%</t>
+  </si>
+  <si>
+    <t>48,26%</t>
+  </si>
+  <si>
+    <t>52,86%</t>
+  </si>
+  <si>
+    <t>18,55%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>21,29%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>40,39%</t>
+  </si>
+  <si>
+    <t>37,12%</t>
+  </si>
+  <si>
+    <t>43,43%</t>
+  </si>
+  <si>
+    <t>26,03%</t>
+  </si>
+  <si>
+    <t>23,06%</t>
+  </si>
+  <si>
+    <t>28,65%</t>
+  </si>
+  <si>
+    <t>32,86%</t>
+  </si>
+  <si>
+    <t>30,78%</t>
+  </si>
+  <si>
+    <t>34,95%</t>
+  </si>
+  <si>
+    <t>38,49%</t>
+  </si>
+  <si>
+    <t>36,81%</t>
+  </si>
+  <si>
+    <t>40,16%</t>
+  </si>
+  <si>
+    <t>66,87%</t>
+  </si>
+  <si>
+    <t>65,3%</t>
+  </si>
+  <si>
+    <t>68,5%</t>
+  </si>
+  <si>
+    <t>52,9%</t>
+  </si>
+  <si>
+    <t>51,6%</t>
+  </si>
+  <si>
+    <t>54,13%</t>
+  </si>
+  <si>
+    <t>19,22%</t>
+  </si>
+  <si>
+    <t>17,77%</t>
+  </si>
+  <si>
+    <t>20,6%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>39,7%</t>
+  </si>
+  <si>
+    <t>38,0%</t>
+  </si>
+  <si>
+    <t>41,4%</t>
+  </si>
+  <si>
+    <t>23,05%</t>
+  </si>
+  <si>
+    <t>21,71%</t>
+  </si>
+  <si>
+    <t>24,57%</t>
+  </si>
+  <si>
+    <t>31,24%</t>
+  </si>
+  <si>
+    <t>30,17%</t>
+  </si>
+  <si>
+    <t>32,44%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según consumo de tabaco en 2012 (Tasa respuesta: 99,95%)</t>
+  </si>
+  <si>
+    <t>32,91%</t>
+  </si>
+  <si>
+    <t>25,08%</t>
+  </si>
+  <si>
+    <t>42,27%</t>
+  </si>
+  <si>
+    <t>69,32%</t>
+  </si>
+  <si>
+    <t>60,07%</t>
+  </si>
+  <si>
+    <t>78,19%</t>
+  </si>
+  <si>
+    <t>43,93%</t>
+  </si>
+  <si>
+    <t>57,09%</t>
+  </si>
+  <si>
+    <t>22,46%</t>
+  </si>
+  <si>
+    <t>15,72%</t>
+  </si>
+  <si>
+    <t>30,28%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>20,97%</t>
+  </si>
+  <si>
+    <t>17,71%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>23,24%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
   </si>
   <si>
     <t>0,0%</t>
   </si>
   <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>Sí fuma diariamente</t>
-  </si>
-  <si>
-    <t>37,58%</t>
-  </si>
-  <si>
-    <t>28,77%</t>
-  </si>
-  <si>
-    <t>46,39%</t>
-  </si>
-  <si>
-    <t>16,23%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>23,4%</t>
-  </si>
-  <si>
-    <t>27,03%</t>
-  </si>
-  <si>
-    <t>21,24%</t>
-  </si>
-  <si>
-    <t>33,15%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>36,37%</t>
-  </si>
-  <si>
-    <t>32,54%</t>
-  </si>
-  <si>
-    <t>40,42%</t>
-  </si>
-  <si>
-    <t>70,14%</t>
-  </si>
-  <si>
-    <t>66,18%</t>
-  </si>
-  <si>
-    <t>73,73%</t>
-  </si>
-  <si>
-    <t>53,21%</t>
-  </si>
-  <si>
-    <t>50,31%</t>
-  </si>
-  <si>
-    <t>56,03%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>19,6%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>42,52%</t>
+  </si>
+  <si>
+    <t>32,94%</t>
+  </si>
+  <si>
+    <t>52,55%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>26,21%</t>
+  </si>
+  <si>
+    <t>30,41%</t>
+  </si>
+  <si>
+    <t>24,89%</t>
+  </si>
+  <si>
+    <t>37,14%</t>
+  </si>
+  <si>
+    <t>33,94%</t>
+  </si>
+  <si>
+    <t>30,16%</t>
+  </si>
+  <si>
+    <t>37,95%</t>
+  </si>
+  <si>
+    <t>65,64%</t>
+  </si>
+  <si>
+    <t>61,39%</t>
+  </si>
+  <si>
+    <t>69,4%</t>
+  </si>
+  <si>
+    <t>49,76%</t>
+  </si>
+  <si>
+    <t>46,56%</t>
+  </si>
+  <si>
+    <t>52,51%</t>
+  </si>
+  <si>
+    <t>28,98%</t>
+  </si>
+  <si>
+    <t>25,42%</t>
+  </si>
+  <si>
+    <t>32,97%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>17,37%</t>
+  </si>
+  <si>
+    <t>22,04%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>35,71%</t>
+  </si>
+  <si>
+    <t>32,0%</t>
+  </si>
+  <si>
+    <t>39,52%</t>
+  </si>
+  <si>
+    <t>21,94%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>25,76%</t>
+  </si>
+  <si>
+    <t>28,84%</t>
+  </si>
+  <si>
+    <t>25,95%</t>
+  </si>
+  <si>
+    <t>31,54%</t>
+  </si>
+  <si>
+    <t>34,78%</t>
+  </si>
+  <si>
+    <t>31,53%</t>
+  </si>
+  <si>
+    <t>37,67%</t>
+  </si>
+  <si>
+    <t>62,35%</t>
+  </si>
+  <si>
+    <t>59,19%</t>
+  </si>
+  <si>
+    <t>65,6%</t>
+  </si>
+  <si>
+    <t>48,67%</t>
+  </si>
+  <si>
+    <t>46,16%</t>
+  </si>
+  <si>
+    <t>50,8%</t>
+  </si>
+  <si>
+    <t>25,34%</t>
+  </si>
+  <si>
+    <t>22,58%</t>
+  </si>
+  <si>
+    <t>28,17%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>19,1%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>36,99%</t>
+  </si>
+  <si>
+    <t>34,18%</t>
+  </si>
+  <si>
+    <t>40,3%</t>
+  </si>
+  <si>
+    <t>26,06%</t>
+  </si>
+  <si>
+    <t>23,33%</t>
+  </si>
+  <si>
+    <t>29,16%</t>
+  </si>
+  <si>
+    <t>31,48%</t>
+  </si>
+  <si>
+    <t>29,47%</t>
+  </si>
+  <si>
+    <t>33,69%</t>
+  </si>
+  <si>
+    <t>35,17%</t>
+  </si>
+  <si>
+    <t>31,64%</t>
+  </si>
+  <si>
+    <t>39,3%</t>
+  </si>
+  <si>
+    <t>56,56%</t>
+  </si>
+  <si>
+    <t>52,79%</t>
+  </si>
+  <si>
+    <t>60,25%</t>
+  </si>
+  <si>
+    <t>46,0%</t>
+  </si>
+  <si>
+    <t>43,17%</t>
+  </si>
+  <si>
+    <t>48,56%</t>
+  </si>
+  <si>
+    <t>23,29%</t>
+  </si>
+  <si>
+    <t>20,18%</t>
+  </si>
+  <si>
+    <t>26,78%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>16,48%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>20,88%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
   </si>
   <si>
     <t>4,37%</t>
   </si>
   <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>44,65%</t>
-  </si>
-  <si>
-    <t>40,23%</t>
-  </si>
-  <si>
-    <t>48,54%</t>
-  </si>
-  <si>
-    <t>21,74%</t>
-  </si>
-  <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>25,88%</t>
-  </si>
-  <si>
-    <t>33,23%</t>
-  </si>
-  <si>
-    <t>30,46%</t>
+    <t>37,71%</t>
+  </si>
+  <si>
+    <t>34,15%</t>
+  </si>
+  <si>
+    <t>41,22%</t>
+  </si>
+  <si>
+    <t>26,83%</t>
+  </si>
+  <si>
+    <t>23,51%</t>
+  </si>
+  <si>
+    <t>30,14%</t>
+  </si>
+  <si>
+    <t>32,21%</t>
+  </si>
+  <si>
+    <t>29,99%</t>
+  </si>
+  <si>
+    <t>34,91%</t>
+  </si>
+  <si>
+    <t>39,48%</t>
   </si>
   <si>
     <t>35,82%</t>
   </si>
   <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>38,06%</t>
-  </si>
-  <si>
-    <t>35,05%</t>
-  </si>
-  <si>
-    <t>41,28%</t>
-  </si>
-  <si>
-    <t>68,24%</t>
-  </si>
-  <si>
-    <t>64,96%</t>
-  </si>
-  <si>
-    <t>71,01%</t>
-  </si>
-  <si>
-    <t>50,98%</t>
-  </si>
-  <si>
-    <t>55,5%</t>
-  </si>
-  <si>
-    <t>19,66%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>22,05%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
+    <t>42,85%</t>
+  </si>
+  <si>
+    <t>61,15%</t>
+  </si>
+  <si>
+    <t>58,05%</t>
+  </si>
+  <si>
+    <t>64,1%</t>
+  </si>
+  <si>
+    <t>50,87%</t>
+  </si>
+  <si>
+    <t>48,82%</t>
+  </si>
+  <si>
+    <t>53,24%</t>
+  </si>
+  <si>
+    <t>21,98%</t>
+  </si>
+  <si>
+    <t>19,19%</t>
+  </si>
+  <si>
+    <t>24,84%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>18,01%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
   </si>
   <si>
     <t>0,95%</t>
   </si>
   <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>39,58%</t>
-  </si>
-  <si>
-    <t>36,29%</t>
-  </si>
-  <si>
-    <t>42,82%</t>
-  </si>
-  <si>
-    <t>21,87%</t>
-  </si>
-  <si>
-    <t>19,29%</t>
-  </si>
-  <si>
-    <t>24,86%</t>
-  </si>
-  <si>
-    <t>30,69%</t>
-  </si>
-  <si>
-    <t>28,65%</t>
-  </si>
-  <si>
-    <t>32,88%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>42,78%</t>
-  </si>
-  <si>
-    <t>38,89%</t>
-  </si>
-  <si>
-    <t>46,37%</t>
-  </si>
-  <si>
-    <t>69,34%</t>
-  </si>
-  <si>
-    <t>65,54%</t>
-  </si>
-  <si>
-    <t>72,68%</t>
-  </si>
-  <si>
-    <t>56,11%</t>
-  </si>
-  <si>
-    <t>53,32%</t>
-  </si>
-  <si>
-    <t>58,63%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>23,3%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>35,03%</t>
-  </si>
-  <si>
-    <t>31,41%</t>
-  </si>
-  <si>
-    <t>38,81%</t>
-  </si>
-  <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>19,32%</t>
-  </si>
-  <si>
-    <t>25,76%</t>
-  </si>
-  <si>
-    <t>28,69%</t>
-  </si>
-  <si>
-    <t>26,48%</t>
-  </si>
-  <si>
-    <t>31,21%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>38,39%</t>
-  </si>
-  <si>
-    <t>35,15%</t>
-  </si>
-  <si>
-    <t>41,48%</t>
-  </si>
-  <si>
-    <t>61,66%</t>
-  </si>
-  <si>
-    <t>58,39%</t>
-  </si>
-  <si>
-    <t>64,53%</t>
-  </si>
-  <si>
-    <t>50,59%</t>
-  </si>
-  <si>
-    <t>48,41%</t>
-  </si>
-  <si>
-    <t>52,93%</t>
-  </si>
-  <si>
-    <t>18,55%</t>
-  </si>
-  <si>
-    <t>16,16%</t>
-  </si>
-  <si>
-    <t>21,06%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>40,39%</t>
-  </si>
-  <si>
-    <t>37,4%</t>
-  </si>
-  <si>
-    <t>43,49%</t>
-  </si>
-  <si>
-    <t>26,03%</t>
-  </si>
-  <si>
-    <t>23,24%</t>
-  </si>
-  <si>
-    <t>29,07%</t>
-  </si>
-  <si>
-    <t>32,86%</t>
-  </si>
-  <si>
-    <t>30,81%</t>
-  </si>
-  <si>
-    <t>35,08%</t>
-  </si>
-  <si>
-    <t>38,49%</t>
-  </si>
-  <si>
-    <t>36,75%</t>
-  </si>
-  <si>
-    <t>40,37%</t>
-  </si>
-  <si>
-    <t>66,87%</t>
-  </si>
-  <si>
-    <t>65,28%</t>
-  </si>
-  <si>
-    <t>68,5%</t>
-  </si>
-  <si>
-    <t>52,9%</t>
-  </si>
-  <si>
-    <t>51,61%</t>
-  </si>
-  <si>
-    <t>54,12%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>20,62%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>39,7%</t>
-  </si>
-  <si>
-    <t>38,01%</t>
-  </si>
-  <si>
-    <t>41,3%</t>
-  </si>
-  <si>
-    <t>23,05%</t>
-  </si>
-  <si>
-    <t>21,64%</t>
-  </si>
-  <si>
-    <t>24,51%</t>
-  </si>
-  <si>
-    <t>31,24%</t>
-  </si>
-  <si>
-    <t>30,08%</t>
-  </si>
-  <si>
-    <t>32,39%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según consumo de tabaco en 2012 (Tasa respuesta: 99,95%)</t>
-  </si>
-  <si>
-    <t>32,91%</t>
-  </si>
-  <si>
-    <t>25,0%</t>
-  </si>
-  <si>
-    <t>42,17%</t>
-  </si>
-  <si>
-    <t>69,32%</t>
-  </si>
-  <si>
-    <t>59,37%</t>
-  </si>
-  <si>
-    <t>78,0%</t>
-  </si>
-  <si>
-    <t>50,81%</t>
-  </si>
-  <si>
-    <t>44,2%</t>
-  </si>
-  <si>
-    <t>57,87%</t>
-  </si>
-  <si>
-    <t>22,46%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>30,47%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>17,71%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>23,67%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>42,52%</t>
-  </si>
-  <si>
-    <t>33,26%</t>
-  </si>
-  <si>
-    <t>51,6%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>35,68%</t>
+  </si>
+  <si>
+    <t>32,79%</t>
+  </si>
+  <si>
+    <t>39,11%</t>
+  </si>
+  <si>
+    <t>26,33%</t>
+  </si>
+  <si>
+    <t>29,11%</t>
+  </si>
+  <si>
+    <t>30,77%</t>
+  </si>
+  <si>
+    <t>28,76%</t>
+  </si>
+  <si>
+    <t>32,83%</t>
+  </si>
+  <si>
+    <t>35,96%</t>
+  </si>
+  <si>
+    <t>34,31%</t>
+  </si>
+  <si>
+    <t>61,49%</t>
+  </si>
+  <si>
+    <t>59,77%</t>
+  </si>
+  <si>
+    <t>63,1%</t>
+  </si>
+  <si>
+    <t>48,96%</t>
+  </si>
+  <si>
+    <t>47,7%</t>
+  </si>
+  <si>
+    <t>50,23%</t>
+  </si>
+  <si>
+    <t>24,49%</t>
+  </si>
+  <si>
+    <t>23,08%</t>
+  </si>
+  <si>
+    <t>26,19%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>36,76%</t>
+  </si>
+  <si>
+    <t>34,99%</t>
+  </si>
+  <si>
+    <t>38,29%</t>
+  </si>
+  <si>
+    <t>25,37%</t>
+  </si>
+  <si>
+    <t>23,77%</t>
   </si>
   <si>
     <t>26,88%</t>
   </si>
   <si>
-    <t>30,41%</t>
-  </si>
-  <si>
-    <t>24,47%</t>
-  </si>
-  <si>
-    <t>36,19%</t>
-  </si>
-  <si>
-    <t>33,94%</t>
-  </si>
-  <si>
-    <t>29,73%</t>
-  </si>
-  <si>
-    <t>38,07%</t>
-  </si>
-  <si>
-    <t>65,64%</t>
-  </si>
-  <si>
-    <t>61,34%</t>
-  </si>
-  <si>
-    <t>69,77%</t>
-  </si>
-  <si>
-    <t>49,76%</t>
-  </si>
-  <si>
-    <t>46,57%</t>
-  </si>
-  <si>
-    <t>52,69%</t>
-  </si>
-  <si>
-    <t>28,98%</t>
-  </si>
-  <si>
-    <t>25,3%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>21,92%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>35,71%</t>
-  </si>
-  <si>
-    <t>31,48%</t>
-  </si>
-  <si>
-    <t>39,83%</t>
-  </si>
-  <si>
-    <t>21,94%</t>
-  </si>
-  <si>
-    <t>18,51%</t>
-  </si>
-  <si>
-    <t>25,69%</t>
-  </si>
-  <si>
-    <t>28,84%</t>
-  </si>
-  <si>
-    <t>26,26%</t>
-  </si>
-  <si>
-    <t>31,82%</t>
-  </si>
-  <si>
-    <t>34,78%</t>
-  </si>
-  <si>
-    <t>31,84%</t>
-  </si>
-  <si>
-    <t>38,28%</t>
-  </si>
-  <si>
-    <t>62,35%</t>
-  </si>
-  <si>
-    <t>59,05%</t>
-  </si>
-  <si>
-    <t>65,49%</t>
-  </si>
-  <si>
-    <t>48,67%</t>
-  </si>
-  <si>
-    <t>46,44%</t>
-  </si>
-  <si>
-    <t>50,9%</t>
-  </si>
-  <si>
-    <t>25,34%</t>
-  </si>
-  <si>
-    <t>22,25%</t>
-  </si>
-  <si>
-    <t>28,35%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>19,25%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>36,99%</t>
-  </si>
-  <si>
-    <t>34,01%</t>
-  </si>
-  <si>
-    <t>40,52%</t>
-  </si>
-  <si>
-    <t>26,06%</t>
-  </si>
-  <si>
-    <t>23,06%</t>
-  </si>
-  <si>
-    <t>29,19%</t>
-  </si>
-  <si>
-    <t>29,42%</t>
-  </si>
-  <si>
-    <t>33,77%</t>
-  </si>
-  <si>
-    <t>35,17%</t>
-  </si>
-  <si>
-    <t>31,68%</t>
-  </si>
-  <si>
-    <t>39,2%</t>
-  </si>
-  <si>
-    <t>56,56%</t>
-  </si>
-  <si>
-    <t>52,97%</t>
-  </si>
-  <si>
-    <t>60,17%</t>
-  </si>
-  <si>
-    <t>46,0%</t>
-  </si>
-  <si>
-    <t>48,63%</t>
-  </si>
-  <si>
-    <t>23,29%</t>
-  </si>
-  <si>
-    <t>20,07%</t>
-  </si>
-  <si>
-    <t>26,6%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>18,5%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>20,64%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>37,71%</t>
-  </si>
-  <si>
-    <t>34,02%</t>
-  </si>
-  <si>
-    <t>41,6%</t>
-  </si>
-  <si>
-    <t>26,83%</t>
-  </si>
-  <si>
-    <t>23,34%</t>
-  </si>
-  <si>
-    <t>30,33%</t>
-  </si>
-  <si>
-    <t>32,21%</t>
-  </si>
-  <si>
-    <t>29,9%</t>
-  </si>
-  <si>
-    <t>34,74%</t>
-  </si>
-  <si>
-    <t>39,48%</t>
-  </si>
-  <si>
-    <t>36,13%</t>
-  </si>
-  <si>
-    <t>42,57%</t>
-  </si>
-  <si>
-    <t>61,15%</t>
-  </si>
-  <si>
-    <t>58,15%</t>
-  </si>
-  <si>
-    <t>64,58%</t>
-  </si>
-  <si>
-    <t>50,87%</t>
-  </si>
-  <si>
-    <t>48,68%</t>
-  </si>
-  <si>
-    <t>53,29%</t>
-  </si>
-  <si>
-    <t>21,98%</t>
-  </si>
-  <si>
-    <t>24,94%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>17,81%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>35,68%</t>
-  </si>
-  <si>
-    <t>32,6%</t>
-  </si>
-  <si>
-    <t>39,04%</t>
-  </si>
-  <si>
-    <t>26,33%</t>
-  </si>
-  <si>
-    <t>29,22%</t>
-  </si>
-  <si>
-    <t>30,77%</t>
-  </si>
-  <si>
-    <t>28,51%</t>
-  </si>
-  <si>
-    <t>32,74%</t>
-  </si>
-  <si>
-    <t>35,96%</t>
-  </si>
-  <si>
-    <t>34,22%</t>
-  </si>
-  <si>
-    <t>37,73%</t>
-  </si>
-  <si>
-    <t>61,49%</t>
-  </si>
-  <si>
-    <t>59,84%</t>
-  </si>
-  <si>
-    <t>63,16%</t>
-  </si>
-  <si>
-    <t>48,96%</t>
-  </si>
-  <si>
-    <t>47,79%</t>
-  </si>
-  <si>
-    <t>50,2%</t>
-  </si>
-  <si>
-    <t>24,49%</t>
-  </si>
-  <si>
-    <t>22,96%</t>
-  </si>
-  <si>
-    <t>26,07%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>18,64%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>36,76%</t>
-  </si>
-  <si>
-    <t>34,95%</t>
-  </si>
-  <si>
-    <t>38,4%</t>
-  </si>
-  <si>
-    <t>25,37%</t>
-  </si>
-  <si>
-    <t>23,85%</t>
-  </si>
-  <si>
-    <t>26,84%</t>
-  </si>
-  <si>
     <t>30,96%</t>
   </si>
   <si>
-    <t>29,89%</t>
-  </si>
-  <si>
-    <t>32,13%</t>
+    <t>29,88%</t>
+  </si>
+  <si>
+    <t>32,12%</t>
   </si>
 </sst>
 </file>
@@ -1738,7 +1756,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D03686BA-CD0C-48E5-A554-4FFA6BFADCA9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16296172-0384-427D-A57D-9AB35D22354E}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1985,7 +2003,7 @@
         <v>35</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="M6" s="7">
         <v>6</v>
@@ -1994,19 +2012,19 @@
         <v>5615</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C7" s="7">
         <v>40</v>
@@ -2015,13 +2033,13 @@
         <v>43356</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H7" s="7">
         <v>20</v>
@@ -2030,13 +2048,13 @@
         <v>18299</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M7" s="7">
         <v>60</v>
@@ -2045,13 +2063,13 @@
         <v>61654</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2066,13 +2084,13 @@
         <v>115358</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H8" s="7">
         <v>128</v>
@@ -2081,13 +2099,13 @@
         <v>112755</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M8" s="7">
         <v>233</v>
@@ -2096,18 +2114,18 @@
         <v>228113</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -2119,13 +2137,13 @@
         <v>210467</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H9" s="7">
         <v>399</v>
@@ -2134,13 +2152,13 @@
         <v>403736</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M9" s="7">
         <v>611</v>
@@ -2149,13 +2167,13 @@
         <v>614203</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2170,13 +2188,13 @@
         <v>95477</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H10" s="7">
         <v>30</v>
@@ -2185,13 +2203,13 @@
         <v>30759</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M10" s="7">
         <v>129</v>
@@ -2200,13 +2218,13 @@
         <v>126236</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2221,13 +2239,13 @@
         <v>14355</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H11" s="7">
         <v>16</v>
@@ -2236,13 +2254,13 @@
         <v>15953</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M11" s="7">
         <v>30</v>
@@ -2251,19 +2269,19 @@
         <v>30309</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C12" s="7">
         <v>253</v>
@@ -2272,13 +2290,13 @@
         <v>258354</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H12" s="7">
         <v>123</v>
@@ -2287,13 +2305,13 @@
         <v>125148</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M12" s="7">
         <v>376</v>
@@ -2302,13 +2320,13 @@
         <v>383502</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2323,13 +2341,13 @@
         <v>578654</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H13" s="7">
         <v>568</v>
@@ -2338,13 +2356,13 @@
         <v>575596</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M13" s="7">
         <v>1146</v>
@@ -2353,18 +2371,18 @@
         <v>1154250</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -2376,13 +2394,13 @@
         <v>365621</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H14" s="7">
         <v>618</v>
@@ -2391,13 +2409,13 @@
         <v>660878</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M14" s="7">
         <v>957</v>
@@ -2406,13 +2424,13 @@
         <v>1026499</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2427,13 +2445,13 @@
         <v>188856</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H15" s="7">
         <v>75</v>
@@ -2442,13 +2460,13 @@
         <v>80380</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M15" s="7">
         <v>253</v>
@@ -2457,13 +2475,13 @@
         <v>269236</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2478,13 +2496,13 @@
         <v>26037</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>73</v>
+        <v>107</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="H16" s="7">
         <v>16</v>
@@ -2493,13 +2511,13 @@
         <v>15320</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>109</v>
+        <v>70</v>
       </c>
       <c r="M16" s="7">
         <v>41</v>
@@ -2508,19 +2526,19 @@
         <v>41357</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C17" s="7">
         <v>353</v>
@@ -2529,13 +2547,13 @@
         <v>380244</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H17" s="7">
         <v>199</v>
@@ -2544,13 +2562,13 @@
         <v>211816</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M17" s="7">
         <v>552</v>
@@ -2559,13 +2577,13 @@
         <v>592059</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2580,13 +2598,13 @@
         <v>960758</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H18" s="7">
         <v>908</v>
@@ -2595,13 +2613,13 @@
         <v>968393</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M18" s="7">
         <v>1803</v>
@@ -2610,18 +2628,18 @@
         <v>1929151</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2633,13 +2651,13 @@
         <v>290232</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H19" s="7">
         <v>479</v>
@@ -2648,13 +2666,13 @@
         <v>474157</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M19" s="7">
         <v>752</v>
@@ -2663,13 +2681,13 @@
         <v>764389</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2684,13 +2702,13 @@
         <v>134301</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H20" s="7">
         <v>41</v>
@@ -2699,13 +2717,13 @@
         <v>39683</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M20" s="7">
         <v>171</v>
@@ -2714,13 +2732,13 @@
         <v>173984</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2735,13 +2753,13 @@
         <v>16269</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H21" s="7">
         <v>18</v>
@@ -2750,13 +2768,13 @@
         <v>16853</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>144</v>
+        <v>112</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="M21" s="7">
         <v>34</v>
@@ -2765,19 +2783,19 @@
         <v>33122</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C22" s="7">
         <v>222</v>
@@ -2786,13 +2804,13 @@
         <v>237706</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H22" s="7">
         <v>158</v>
@@ -2801,13 +2819,13 @@
         <v>153148</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="M22" s="7">
         <v>380</v>
@@ -2816,13 +2834,13 @@
         <v>390854</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2837,13 +2855,13 @@
         <v>678509</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H23" s="7">
         <v>696</v>
@@ -2852,13 +2870,13 @@
         <v>683841</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M23" s="7">
         <v>1337</v>
@@ -2867,18 +2885,18 @@
         <v>1362350</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2890,13 +2908,13 @@
         <v>361682</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H24" s="7">
         <v>615</v>
@@ -2905,13 +2923,13 @@
         <v>640389</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M24" s="7">
         <v>1000</v>
@@ -2920,13 +2938,13 @@
         <v>1002071</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2941,13 +2959,13 @@
         <v>174795</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H25" s="7">
         <v>90</v>
@@ -2956,13 +2974,13 @@
         <v>93829</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M25" s="7">
         <v>276</v>
@@ -2971,13 +2989,13 @@
         <v>268624</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2992,13 +3010,13 @@
         <v>25161</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>109</v>
+        <v>177</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="H26" s="7">
         <v>32</v>
@@ -3007,13 +3025,13 @@
         <v>33993</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="M26" s="7">
         <v>58</v>
@@ -3022,19 +3040,19 @@
         <v>59153</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C27" s="7">
         <v>397</v>
@@ -3043,13 +3061,13 @@
         <v>380584</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="H27" s="7">
         <v>260</v>
@@ -3058,13 +3076,13 @@
         <v>270402</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="M27" s="7">
         <v>657</v>
@@ -3073,13 +3091,13 @@
         <v>650986</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -3094,13 +3112,13 @@
         <v>942222</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H28" s="7">
         <v>997</v>
@@ -3109,13 +3127,13 @@
         <v>1038612</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M28" s="7">
         <v>1991</v>
@@ -3124,13 +3142,13 @@
         <v>1980834</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3147,13 +3165,13 @@
         <v>1260667</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="H29" s="7">
         <v>2204</v>
@@ -3162,28 +3180,28 @@
         <v>2259524</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="M29" s="7">
         <v>3442</v>
       </c>
       <c r="N29" s="7">
-        <v>3520191</v>
+        <v>3520190</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3198,13 +3216,13 @@
         <v>629553</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="H30" s="7">
         <v>248</v>
@@ -3213,13 +3231,13 @@
         <v>256344</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="M30" s="7">
         <v>874</v>
@@ -3228,13 +3246,13 @@
         <v>885897</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3249,13 +3267,13 @@
         <v>85037</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="H31" s="7">
         <v>85</v>
@@ -3264,13 +3282,13 @@
         <v>84519</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="M31" s="7">
         <v>169</v>
@@ -3279,19 +3297,19 @@
         <v>169556</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C32" s="7">
         <v>1265</v>
@@ -3300,13 +3318,13 @@
         <v>1300244</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="H32" s="7">
         <v>760</v>
@@ -3315,13 +3333,13 @@
         <v>778812</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="M32" s="7">
         <v>2025</v>
@@ -3330,13 +3348,13 @@
         <v>2079056</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3351,13 +3369,13 @@
         <v>3275501</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H33" s="7">
         <v>3297</v>
@@ -3366,33 +3384,33 @@
         <v>3379198</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M33" s="7">
         <v>6510</v>
       </c>
       <c r="N33" s="7">
-        <v>6654699</v>
+        <v>6654698</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
   </sheetData>
@@ -3413,7 +3431,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C30D2DFF-726B-4A0C-A278-E860E85EB13E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13F1736D-9E60-4F10-9596-653F31E0FF9C}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3430,7 +3448,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3537,13 +3555,13 @@
         <v>38099</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="H4" s="7">
         <v>70</v>
@@ -3552,13 +3570,13 @@
         <v>77571</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="M4" s="7">
         <v>110</v>
@@ -3567,13 +3585,13 @@
         <v>115670</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>237</v>
+        <v>95</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3588,13 +3606,13 @@
         <v>26006</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="H5" s="7">
         <v>12</v>
@@ -3603,13 +3621,13 @@
         <v>14316</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="M5" s="7">
         <v>42</v>
@@ -3618,13 +3636,13 @@
         <v>40322</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3639,13 +3657,13 @@
         <v>2435</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -3654,13 +3672,13 @@
         <v>0</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>35</v>
+        <v>253</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="M6" s="7">
         <v>3</v>
@@ -3669,19 +3687,19 @@
         <v>2435</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C7" s="7">
         <v>49</v>
@@ -3690,13 +3708,13 @@
         <v>49225</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="H7" s="7">
         <v>17</v>
@@ -3705,13 +3723,13 @@
         <v>20018</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="M7" s="7">
         <v>66</v>
@@ -3720,13 +3738,13 @@
         <v>69243</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3741,13 +3759,13 @@
         <v>115765</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H8" s="7">
         <v>99</v>
@@ -3756,13 +3774,13 @@
         <v>111905</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M8" s="7">
         <v>221</v>
@@ -3771,18 +3789,18 @@
         <v>227670</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -3794,13 +3812,13 @@
         <v>199478</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="H9" s="7">
         <v>363</v>
@@ -3809,13 +3827,13 @@
         <v>384099</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="M9" s="7">
         <v>552</v>
@@ -3824,13 +3842,13 @@
         <v>583577</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3845,13 +3863,13 @@
         <v>170304</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>48</v>
+        <v>279</v>
       </c>
       <c r="H10" s="7">
         <v>57</v>
@@ -3860,13 +3878,13 @@
         <v>59223</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="M10" s="7">
         <v>212</v>
@@ -3875,13 +3893,13 @@
         <v>229527</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3896,13 +3914,13 @@
         <v>8027</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="H11" s="7">
         <v>12</v>
@@ -3911,13 +3929,13 @@
         <v>13422</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>136</v>
+        <v>291</v>
       </c>
       <c r="M11" s="7">
         <v>20</v>
@@ -3926,19 +3944,19 @@
         <v>21449</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C12" s="7">
         <v>200</v>
@@ -3947,13 +3965,13 @@
         <v>209896</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="H12" s="7">
         <v>119</v>
@@ -3962,13 +3980,13 @@
         <v>128400</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="M12" s="7">
         <v>319</v>
@@ -3977,13 +3995,13 @@
         <v>338296</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3998,13 +4016,13 @@
         <v>587704</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H13" s="7">
         <v>551</v>
@@ -4013,13 +4031,13 @@
         <v>585145</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M13" s="7">
         <v>1103</v>
@@ -4028,18 +4046,18 @@
         <v>1172849</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -4051,13 +4069,13 @@
         <v>353707</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="H14" s="7">
         <v>585</v>
@@ -4066,13 +4084,13 @@
         <v>643516</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="M14" s="7">
         <v>913</v>
@@ -4081,13 +4099,13 @@
         <v>997223</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4102,13 +4120,13 @@
         <v>257713</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="H15" s="7">
         <v>90</v>
@@ -4117,13 +4135,13 @@
         <v>98321</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="M15" s="7">
         <v>326</v>
@@ -4132,13 +4150,13 @@
         <v>356033</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4153,13 +4171,13 @@
         <v>29356</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>253</v>
+        <v>323</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="H16" s="7">
         <v>19</v>
@@ -4168,13 +4186,13 @@
         <v>21379</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="M16" s="7">
         <v>45</v>
@@ -4183,19 +4201,19 @@
         <v>50736</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>323</v>
+        <v>292</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C17" s="7">
         <v>345</v>
@@ -4204,13 +4222,13 @@
         <v>376142</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="H17" s="7">
         <v>246</v>
@@ -4219,13 +4237,13 @@
         <v>268968</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="M17" s="7">
         <v>591</v>
@@ -4234,13 +4252,13 @@
         <v>645110</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>292</v>
+        <v>335</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4255,13 +4273,13 @@
         <v>1016918</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H18" s="7">
         <v>940</v>
@@ -4270,13 +4288,13 @@
         <v>1032184</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M18" s="7">
         <v>1875</v>
@@ -4285,18 +4303,18 @@
         <v>2049102</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4308,13 +4326,13 @@
         <v>266459</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="H19" s="7">
         <v>403</v>
@@ -4323,13 +4341,13 @@
         <v>439041</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="M19" s="7">
         <v>649</v>
@@ -4338,13 +4356,13 @@
         <v>705500</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>186</v>
+        <v>345</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4359,13 +4377,13 @@
         <v>176487</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="H20" s="7">
         <v>95</v>
@@ -4374,13 +4392,13 @@
         <v>107241</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="M20" s="7">
         <v>253</v>
@@ -4389,13 +4407,13 @@
         <v>283728</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>347</v>
+        <v>83</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4410,13 +4428,13 @@
         <v>28977</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>145</v>
+        <v>356</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="H21" s="7">
         <v>19</v>
@@ -4428,10 +4446,10 @@
         <v>31</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>352</v>
+        <v>107</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="M21" s="7">
         <v>45</v>
@@ -4440,19 +4458,19 @@
         <v>50597</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>354</v>
+        <v>148</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>355</v>
+        <v>70</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C22" s="7">
         <v>259</v>
@@ -4461,13 +4479,13 @@
         <v>285700</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="H22" s="7">
         <v>187</v>
@@ -4476,13 +4494,13 @@
         <v>208276</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="M22" s="7">
         <v>446</v>
@@ -4491,13 +4509,13 @@
         <v>493976</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4512,13 +4530,13 @@
         <v>757623</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H23" s="7">
         <v>704</v>
@@ -4527,13 +4545,13 @@
         <v>776178</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M23" s="7">
         <v>1393</v>
@@ -4542,18 +4560,18 @@
         <v>1533801</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -4565,13 +4583,13 @@
         <v>374131</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="H24" s="7">
         <v>617</v>
@@ -4580,13 +4598,13 @@
         <v>642609</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="M24" s="7">
         <v>975</v>
@@ -4595,13 +4613,13 @@
         <v>1016740</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4616,13 +4634,13 @@
         <v>208329</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>152</v>
+        <v>379</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="H25" s="7">
         <v>106</v>
@@ -4631,13 +4649,13 @@
         <v>114120</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="M25" s="7">
         <v>304</v>
@@ -4646,13 +4664,13 @@
         <v>322449</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4667,13 +4685,13 @@
         <v>27106</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>290</v>
+        <v>387</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="H26" s="7">
         <v>17</v>
@@ -4682,13 +4700,13 @@
         <v>17439</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>211</v>
+        <v>392</v>
       </c>
       <c r="M26" s="7">
         <v>44</v>
@@ -4697,19 +4715,19 @@
         <v>44544</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C27" s="7">
         <v>327</v>
@@ -4718,13 +4736,13 @@
         <v>338173</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="H27" s="7">
         <v>262</v>
@@ -4733,13 +4751,13 @@
         <v>276748</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="M27" s="7">
         <v>589</v>
@@ -4748,13 +4766,13 @@
         <v>614920</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -4769,13 +4787,13 @@
         <v>947739</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H28" s="7">
         <v>1002</v>
@@ -4784,13 +4802,13 @@
         <v>1050915</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M28" s="7">
         <v>1912</v>
@@ -4799,13 +4817,13 @@
         <v>1998654</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4822,13 +4840,13 @@
         <v>1231874</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>400</v>
+        <v>306</v>
       </c>
       <c r="H29" s="7">
         <v>2038</v>
@@ -4837,13 +4855,13 @@
         <v>2186836</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="M29" s="7">
         <v>3199</v>
@@ -4852,13 +4870,13 @@
         <v>3418710</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4873,13 +4891,13 @@
         <v>838839</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="H30" s="7">
         <v>360</v>
@@ -4888,13 +4906,13 @@
         <v>393221</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="M30" s="7">
         <v>1137</v>
@@ -4903,13 +4921,13 @@
         <v>1232059</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4924,13 +4942,13 @@
         <v>95901</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="H31" s="7">
         <v>67</v>
@@ -4939,13 +4957,13 @@
         <v>73860</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>211</v>
+        <v>425</v>
       </c>
       <c r="M31" s="7">
         <v>157</v>
@@ -4954,19 +4972,19 @@
         <v>169761</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>320</v>
+        <v>423</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C32" s="7">
         <v>1180</v>
@@ -4975,13 +4993,13 @@
         <v>1259135</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="H32" s="7">
         <v>831</v>
@@ -4990,13 +5008,13 @@
         <v>902410</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="M32" s="7">
         <v>2011</v>
@@ -5005,13 +5023,13 @@
         <v>2161546</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5026,13 +5044,13 @@
         <v>3425749</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H33" s="7">
         <v>3296</v>
@@ -5041,13 +5059,13 @@
         <v>3556327</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M33" s="7">
         <v>6504</v>
@@ -5056,18 +5074,18 @@
         <v>6982076</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P23-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P23-Habitat-trans_orig.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{64EC0215-18C7-4C2A-92E3-F8F5CD82F0AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0B606ABD-4B4A-41F6-B69B-F91439CA62A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9EC66A25-F988-41EA-AA73-2DC21F5BF613}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{AC2A61EC-4193-4665-BAD8-CBCCBB59E43F}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,9 +38,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="436">
-  <si>
-    <t>Población según consumo de tabaco en 2007 (Tasa respuesta: 99,98%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="825" uniqueCount="525">
+  <si>
+    <t>Población según consumo de tabaco (2007/2012) en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -66,1285 +67,1552 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>No fuma ni ha fumado nunca de manera habitual</t>
   </si>
   <si>
-    <t>28,32%</t>
-  </si>
-  <si>
-    <t>20,07%</t>
-  </si>
-  <si>
-    <t>37,46%</t>
-  </si>
-  <si>
-    <t>71,27%</t>
+    <t>35,03%</t>
+  </si>
+  <si>
+    <t>31,63%</t>
+  </si>
+  <si>
+    <t>38,9%</t>
+  </si>
+  <si>
+    <t>70,33%</t>
+  </si>
+  <si>
+    <t>66,49%</t>
+  </si>
+  <si>
+    <t>73,41%</t>
+  </si>
+  <si>
+    <t>52,61%</t>
+  </si>
+  <si>
+    <t>49,9%</t>
+  </si>
+  <si>
+    <t>55,3%</t>
+  </si>
+  <si>
+    <t>No fuma pero ha fumado</t>
+  </si>
+  <si>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>21,92%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>Sí fuma pero no diariamente</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>Sí fuma diariamente</t>
+  </si>
+  <si>
+    <t>43,47%</t>
+  </si>
+  <si>
+    <t>39,89%</t>
+  </si>
+  <si>
+    <t>47,23%</t>
+  </si>
+  <si>
+    <t>20,84%</t>
+  </si>
+  <si>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>23,86%</t>
+  </si>
+  <si>
+    <t>32,2%</t>
+  </si>
+  <si>
+    <t>29,59%</t>
+  </si>
+  <si>
+    <t>34,54%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>38,06%</t>
+  </si>
+  <si>
+    <t>34,87%</t>
+  </si>
+  <si>
+    <t>41,28%</t>
+  </si>
+  <si>
+    <t>68,24%</t>
+  </si>
+  <si>
+    <t>65,33%</t>
+  </si>
+  <si>
+    <t>71,53%</t>
+  </si>
+  <si>
+    <t>53,21%</t>
+  </si>
+  <si>
+    <t>50,81%</t>
+  </si>
+  <si>
+    <t>55,59%</t>
+  </si>
+  <si>
+    <t>19,66%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>22,71%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>39,58%</t>
+  </si>
+  <si>
+    <t>35,99%</t>
+  </si>
+  <si>
+    <t>42,54%</t>
+  </si>
+  <si>
+    <t>21,87%</t>
+  </si>
+  <si>
+    <t>19,02%</t>
+  </si>
+  <si>
+    <t>24,36%</t>
+  </si>
+  <si>
+    <t>30,69%</t>
+  </si>
+  <si>
+    <t>28,54%</t>
+  </si>
+  <si>
+    <t>33,02%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>42,78%</t>
+  </si>
+  <si>
+    <t>38,61%</t>
+  </si>
+  <si>
+    <t>46,66%</t>
+  </si>
+  <si>
+    <t>69,34%</t>
+  </si>
+  <si>
+    <t>65,36%</t>
+  </si>
+  <si>
+    <t>72,31%</t>
+  </si>
+  <si>
+    <t>56,11%</t>
+  </si>
+  <si>
+    <t>53,71%</t>
+  </si>
+  <si>
+    <t>59,24%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>23,36%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>31,45%</t>
+  </si>
+  <si>
+    <t>39,16%</t>
+  </si>
+  <si>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>25,99%</t>
+  </si>
+  <si>
+    <t>28,69%</t>
+  </si>
+  <si>
+    <t>26,26%</t>
+  </si>
+  <si>
+    <t>31,15%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>38,39%</t>
+  </si>
+  <si>
+    <t>35,06%</t>
+  </si>
+  <si>
+    <t>41,48%</t>
+  </si>
+  <si>
+    <t>61,66%</t>
+  </si>
+  <si>
+    <t>58,51%</t>
+  </si>
+  <si>
+    <t>64,71%</t>
+  </si>
+  <si>
+    <t>50,59%</t>
+  </si>
+  <si>
+    <t>48,26%</t>
+  </si>
+  <si>
+    <t>52,86%</t>
+  </si>
+  <si>
+    <t>18,55%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>21,29%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>40,39%</t>
+  </si>
+  <si>
+    <t>37,12%</t>
+  </si>
+  <si>
+    <t>43,43%</t>
+  </si>
+  <si>
+    <t>26,03%</t>
+  </si>
+  <si>
+    <t>23,06%</t>
+  </si>
+  <si>
+    <t>28,65%</t>
+  </si>
+  <si>
+    <t>32,86%</t>
+  </si>
+  <si>
+    <t>30,78%</t>
+  </si>
+  <si>
+    <t>34,95%</t>
+  </si>
+  <si>
+    <t>38,49%</t>
+  </si>
+  <si>
+    <t>36,81%</t>
+  </si>
+  <si>
+    <t>40,16%</t>
+  </si>
+  <si>
+    <t>66,87%</t>
+  </si>
+  <si>
+    <t>65,3%</t>
+  </si>
+  <si>
+    <t>68,5%</t>
+  </si>
+  <si>
+    <t>52,9%</t>
+  </si>
+  <si>
+    <t>51,6%</t>
+  </si>
+  <si>
+    <t>54,13%</t>
+  </si>
+  <si>
+    <t>19,22%</t>
+  </si>
+  <si>
+    <t>17,77%</t>
+  </si>
+  <si>
+    <t>20,6%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>39,7%</t>
+  </si>
+  <si>
+    <t>38,0%</t>
+  </si>
+  <si>
+    <t>41,4%</t>
+  </si>
+  <si>
+    <t>23,05%</t>
+  </si>
+  <si>
+    <t>21,71%</t>
+  </si>
+  <si>
+    <t>24,57%</t>
+  </si>
+  <si>
+    <t>31,24%</t>
+  </si>
+  <si>
+    <t>30,17%</t>
+  </si>
+  <si>
+    <t>32,44%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según consumo de tabaco (2007/2012) en 2012 (Tasa respuesta: 99,95%)</t>
+  </si>
+  <si>
+    <t>33,77%</t>
+  </si>
+  <si>
+    <t>29,91%</t>
+  </si>
+  <si>
+    <t>37,47%</t>
+  </si>
+  <si>
+    <t>66,23%</t>
+  </si>
+  <si>
+    <t>62,69%</t>
+  </si>
+  <si>
+    <t>70,18%</t>
+  </si>
+  <si>
+    <t>49,93%</t>
+  </si>
+  <si>
+    <t>47,16%</t>
+  </si>
+  <si>
+    <t>52,72%</t>
+  </si>
+  <si>
+    <t>27,91%</t>
+  </si>
+  <si>
+    <t>24,73%</t>
+  </si>
+  <si>
+    <t>31,67%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>19,27%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>21,68%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>36,83%</t>
+  </si>
+  <si>
+    <t>33,38%</t>
+  </si>
+  <si>
+    <t>40,76%</t>
+  </si>
+  <si>
+    <t>18,4%</t>
+  </si>
+  <si>
+    <t>24,96%</t>
+  </si>
+  <si>
+    <t>29,1%</t>
+  </si>
+  <si>
+    <t>26,57%</t>
+  </si>
+  <si>
+    <t>31,7%</t>
+  </si>
+  <si>
+    <t>34,78%</t>
+  </si>
+  <si>
+    <t>31,53%</t>
+  </si>
+  <si>
+    <t>37,67%</t>
+  </si>
+  <si>
+    <t>62,35%</t>
+  </si>
+  <si>
+    <t>59,19%</t>
+  </si>
+  <si>
+    <t>65,6%</t>
+  </si>
+  <si>
+    <t>48,67%</t>
+  </si>
+  <si>
+    <t>46,16%</t>
+  </si>
+  <si>
+    <t>50,8%</t>
+  </si>
+  <si>
+    <t>25,34%</t>
+  </si>
+  <si>
+    <t>22,58%</t>
+  </si>
+  <si>
+    <t>28,17%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>19,1%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>36,99%</t>
+  </si>
+  <si>
+    <t>34,18%</t>
+  </si>
+  <si>
+    <t>40,3%</t>
+  </si>
+  <si>
+    <t>26,06%</t>
+  </si>
+  <si>
+    <t>23,33%</t>
+  </si>
+  <si>
+    <t>29,16%</t>
+  </si>
+  <si>
+    <t>31,48%</t>
+  </si>
+  <si>
+    <t>29,47%</t>
+  </si>
+  <si>
+    <t>33,69%</t>
+  </si>
+  <si>
+    <t>35,17%</t>
+  </si>
+  <si>
+    <t>31,64%</t>
+  </si>
+  <si>
+    <t>39,3%</t>
+  </si>
+  <si>
+    <t>56,56%</t>
+  </si>
+  <si>
+    <t>52,79%</t>
+  </si>
+  <si>
+    <t>60,25%</t>
+  </si>
+  <si>
+    <t>46,0%</t>
+  </si>
+  <si>
+    <t>43,17%</t>
+  </si>
+  <si>
+    <t>48,56%</t>
+  </si>
+  <si>
+    <t>23,29%</t>
+  </si>
+  <si>
+    <t>20,18%</t>
+  </si>
+  <si>
+    <t>26,78%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>16,48%</t>
+  </si>
+  <si>
+    <t>18,5%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>20,88%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>37,71%</t>
+  </si>
+  <si>
+    <t>34,15%</t>
+  </si>
+  <si>
+    <t>41,22%</t>
+  </si>
+  <si>
+    <t>26,83%</t>
+  </si>
+  <si>
+    <t>23,51%</t>
+  </si>
+  <si>
+    <t>30,14%</t>
+  </si>
+  <si>
+    <t>32,21%</t>
+  </si>
+  <si>
+    <t>29,99%</t>
+  </si>
+  <si>
+    <t>34,91%</t>
+  </si>
+  <si>
+    <t>39,48%</t>
+  </si>
+  <si>
+    <t>35,82%</t>
+  </si>
+  <si>
+    <t>42,85%</t>
+  </si>
+  <si>
+    <t>61,15%</t>
+  </si>
+  <si>
+    <t>58,05%</t>
+  </si>
+  <si>
+    <t>64,1%</t>
+  </si>
+  <si>
+    <t>50,87%</t>
+  </si>
+  <si>
+    <t>48,82%</t>
+  </si>
+  <si>
+    <t>53,24%</t>
+  </si>
+  <si>
+    <t>21,98%</t>
+  </si>
+  <si>
+    <t>19,19%</t>
+  </si>
+  <si>
+    <t>24,84%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>18,01%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>35,68%</t>
+  </si>
+  <si>
+    <t>32,79%</t>
+  </si>
+  <si>
+    <t>39,11%</t>
+  </si>
+  <si>
+    <t>26,33%</t>
+  </si>
+  <si>
+    <t>23,5%</t>
+  </si>
+  <si>
+    <t>29,11%</t>
+  </si>
+  <si>
+    <t>30,77%</t>
+  </si>
+  <si>
+    <t>28,76%</t>
+  </si>
+  <si>
+    <t>32,83%</t>
+  </si>
+  <si>
+    <t>35,96%</t>
+  </si>
+  <si>
+    <t>34,31%</t>
+  </si>
+  <si>
+    <t>61,49%</t>
+  </si>
+  <si>
+    <t>59,77%</t>
+  </si>
+  <si>
+    <t>63,1%</t>
+  </si>
+  <si>
+    <t>48,96%</t>
+  </si>
+  <si>
+    <t>47,7%</t>
+  </si>
+  <si>
+    <t>50,23%</t>
+  </si>
+  <si>
+    <t>24,49%</t>
+  </si>
+  <si>
+    <t>23,08%</t>
+  </si>
+  <si>
+    <t>26,19%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>36,76%</t>
+  </si>
+  <si>
+    <t>34,99%</t>
+  </si>
+  <si>
+    <t>38,29%</t>
+  </si>
+  <si>
+    <t>25,37%</t>
+  </si>
+  <si>
+    <t>23,77%</t>
+  </si>
+  <si>
+    <t>26,88%</t>
+  </si>
+  <si>
+    <t>30,96%</t>
+  </si>
+  <si>
+    <t>29,88%</t>
+  </si>
+  <si>
+    <t>32,12%</t>
+  </si>
+  <si>
+    <t>Población según consumo de tabaco (2007/2012) en 2016 (Tasa respuesta: 99,89%)</t>
+  </si>
+  <si>
+    <t>42,26%</t>
+  </si>
+  <si>
+    <t>38,53%</t>
+  </si>
+  <si>
+    <t>46,19%</t>
+  </si>
+  <si>
+    <t>65,09%</t>
+  </si>
+  <si>
+    <t>61,08%</t>
+  </si>
+  <si>
+    <t>68,78%</t>
+  </si>
+  <si>
+    <t>53,64%</t>
+  </si>
+  <si>
+    <t>50,89%</t>
+  </si>
+  <si>
+    <t>56,42%</t>
+  </si>
+  <si>
+    <t>20,61%</t>
+  </si>
+  <si>
+    <t>17,7%</t>
+  </si>
+  <si>
+    <t>23,9%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>34,48%</t>
+  </si>
+  <si>
+    <t>30,68%</t>
+  </si>
+  <si>
+    <t>38,22%</t>
+  </si>
+  <si>
+    <t>23,74%</t>
+  </si>
+  <si>
+    <t>20,49%</t>
+  </si>
+  <si>
+    <t>27,28%</t>
+  </si>
+  <si>
+    <t>29,12%</t>
+  </si>
+  <si>
+    <t>26,58%</t>
+  </si>
+  <si>
+    <t>31,81%</t>
+  </si>
+  <si>
+    <t>45,62%</t>
+  </si>
+  <si>
+    <t>42,28%</t>
+  </si>
+  <si>
+    <t>63,93%</t>
+  </si>
+  <si>
+    <t>60,75%</t>
+  </si>
+  <si>
+    <t>67,04%</t>
+  </si>
+  <si>
+    <t>54,87%</t>
+  </si>
+  <si>
+    <t>52,67%</t>
+  </si>
+  <si>
+    <t>57,35%</t>
+  </si>
+  <si>
+    <t>21,11%</t>
+  </si>
+  <si>
+    <t>18,62%</t>
+  </si>
+  <si>
+    <t>23,8%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>30,55%</t>
+  </si>
+  <si>
+    <t>27,78%</t>
+  </si>
+  <si>
+    <t>33,36%</t>
+  </si>
+  <si>
+    <t>23,82%</t>
+  </si>
+  <si>
+    <t>21,19%</t>
+  </si>
+  <si>
+    <t>26,68%</t>
+  </si>
+  <si>
+    <t>27,15%</t>
+  </si>
+  <si>
+    <t>25,16%</t>
+  </si>
+  <si>
+    <t>39,81%</t>
+  </si>
+  <si>
+    <t>36,2%</t>
+  </si>
+  <si>
+    <t>43,75%</t>
+  </si>
+  <si>
+    <t>60,54%</t>
+  </si>
+  <si>
+    <t>56,94%</t>
+  </si>
+  <si>
+    <t>64,34%</t>
+  </si>
+  <si>
+    <t>50,34%</t>
+  </si>
+  <si>
+    <t>47,71%</t>
+  </si>
+  <si>
+    <t>52,92%</t>
+  </si>
+  <si>
+    <t>19,05%</t>
+  </si>
+  <si>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>22,27%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>38,75%</t>
+  </si>
+  <si>
+    <t>42,48%</t>
+  </si>
+  <si>
+    <t>26,72%</t>
+  </si>
+  <si>
+    <t>23,55%</t>
+  </si>
+  <si>
+    <t>29,96%</t>
+  </si>
+  <si>
+    <t>32,64%</t>
+  </si>
+  <si>
+    <t>30,21%</t>
+  </si>
+  <si>
+    <t>35,21%</t>
+  </si>
+  <si>
+    <t>48,17%</t>
+  </si>
+  <si>
+    <t>44,8%</t>
+  </si>
+  <si>
+    <t>51,4%</t>
   </si>
   <si>
     <t>62,37%</t>
   </si>
   <si>
-    <t>78,49%</t>
-  </si>
-  <si>
-    <t>49,55%</t>
-  </si>
-  <si>
-    <t>43,42%</t>
-  </si>
-  <si>
-    <t>56,39%</t>
-  </si>
-  <si>
-    <t>No fuma pero ha fumado</t>
-  </si>
-  <si>
-    <t>31,31%</t>
-  </si>
-  <si>
-    <t>23,5%</t>
-  </si>
-  <si>
-    <t>40,99%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>17,14%</t>
-  </si>
-  <si>
-    <t>20,96%</t>
-  </si>
-  <si>
-    <t>15,97%</t>
-  </si>
-  <si>
-    <t>27,14%</t>
-  </si>
-  <si>
-    <t>Sí fuma pero no diariamente</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>Sí fuma diariamente</t>
-  </si>
-  <si>
-    <t>37,58%</t>
-  </si>
-  <si>
-    <t>29,21%</t>
-  </si>
-  <si>
-    <t>47,44%</t>
-  </si>
-  <si>
-    <t>16,23%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>23,11%</t>
-  </si>
-  <si>
-    <t>27,03%</t>
-  </si>
-  <si>
-    <t>21,54%</t>
-  </si>
-  <si>
-    <t>33,48%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>36,37%</t>
-  </si>
-  <si>
-    <t>32,72%</t>
-  </si>
-  <si>
-    <t>40,55%</t>
-  </si>
-  <si>
-    <t>70,14%</t>
-  </si>
-  <si>
-    <t>65,97%</t>
-  </si>
-  <si>
-    <t>73,82%</t>
-  </si>
-  <si>
-    <t>53,21%</t>
-  </si>
-  <si>
-    <t>50,4%</t>
-  </si>
-  <si>
-    <t>56,16%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>19,6%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
+    <t>59,32%</t>
+  </si>
+  <si>
+    <t>65,51%</t>
+  </si>
+  <si>
+    <t>55,64%</t>
+  </si>
+  <si>
+    <t>53,39%</t>
+  </si>
+  <si>
+    <t>57,9%</t>
+  </si>
+  <si>
+    <t>18,67%</t>
+  </si>
+  <si>
+    <t>24,12%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>18,54%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>27,48%</t>
+  </si>
+  <si>
+    <t>30,53%</t>
+  </si>
+  <si>
+    <t>22,37%</t>
+  </si>
+  <si>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>25,15%</t>
+  </si>
+  <si>
+    <t>24,79%</t>
+  </si>
+  <si>
+    <t>22,68%</t>
+  </si>
+  <si>
+    <t>26,56%</t>
+  </si>
+  <si>
+    <t>44,36%</t>
+  </si>
+  <si>
+    <t>42,57%</t>
+  </si>
+  <si>
+    <t>45,92%</t>
+  </si>
+  <si>
+    <t>62,94%</t>
+  </si>
+  <si>
+    <t>61,16%</t>
+  </si>
+  <si>
+    <t>64,53%</t>
+  </si>
+  <si>
+    <t>53,84%</t>
+  </si>
+  <si>
+    <t>55,1%</t>
+  </si>
+  <si>
+    <t>20,57%</t>
+  </si>
+  <si>
+    <t>19,06%</t>
+  </si>
+  <si>
+    <t>21,9%</t>
   </si>
   <si>
     <t>10,94%</t>
   </si>
   <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>15,65%</t>
+  </si>
+  <si>
+    <t>14,78%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
   </si>
   <si>
     <t>1,65%</t>
   </si>
   <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>44,65%</t>
-  </si>
-  <si>
-    <t>40,38%</t>
-  </si>
-  <si>
-    <t>48,54%</t>
-  </si>
-  <si>
-    <t>21,74%</t>
-  </si>
-  <si>
-    <t>18,5%</t>
-  </si>
-  <si>
-    <t>25,53%</t>
-  </si>
-  <si>
-    <t>33,23%</t>
-  </si>
-  <si>
-    <t>30,62%</t>
-  </si>
-  <si>
-    <t>35,75%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>38,06%</t>
-  </si>
-  <si>
-    <t>34,87%</t>
-  </si>
-  <si>
-    <t>41,28%</t>
-  </si>
-  <si>
-    <t>68,24%</t>
-  </si>
-  <si>
-    <t>65,33%</t>
-  </si>
-  <si>
-    <t>71,53%</t>
-  </si>
-  <si>
-    <t>50,81%</t>
-  </si>
-  <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>19,66%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>22,71%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>39,58%</t>
-  </si>
-  <si>
-    <t>35,99%</t>
-  </si>
-  <si>
-    <t>42,54%</t>
-  </si>
-  <si>
-    <t>21,87%</t>
-  </si>
-  <si>
-    <t>19,02%</t>
-  </si>
-  <si>
-    <t>24,36%</t>
-  </si>
-  <si>
-    <t>30,69%</t>
-  </si>
-  <si>
-    <t>28,54%</t>
-  </si>
-  <si>
-    <t>33,02%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>42,78%</t>
-  </si>
-  <si>
-    <t>38,61%</t>
-  </si>
-  <si>
-    <t>46,66%</t>
-  </si>
-  <si>
-    <t>69,34%</t>
-  </si>
-  <si>
-    <t>65,36%</t>
-  </si>
-  <si>
-    <t>72,31%</t>
-  </si>
-  <si>
-    <t>56,11%</t>
-  </si>
-  <si>
-    <t>53,71%</t>
-  </si>
-  <si>
-    <t>59,24%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>23,36%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>35,03%</t>
-  </si>
-  <si>
-    <t>31,45%</t>
-  </si>
-  <si>
-    <t>39,16%</t>
-  </si>
-  <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>25,99%</t>
-  </si>
-  <si>
-    <t>28,69%</t>
-  </si>
-  <si>
-    <t>26,26%</t>
-  </si>
-  <si>
-    <t>31,15%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>38,39%</t>
-  </si>
-  <si>
-    <t>35,06%</t>
-  </si>
-  <si>
-    <t>41,48%</t>
-  </si>
-  <si>
-    <t>61,66%</t>
-  </si>
-  <si>
-    <t>58,51%</t>
-  </si>
-  <si>
-    <t>64,71%</t>
-  </si>
-  <si>
-    <t>50,59%</t>
-  </si>
-  <si>
-    <t>48,26%</t>
-  </si>
-  <si>
-    <t>52,86%</t>
-  </si>
-  <si>
-    <t>18,55%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>21,29%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>40,39%</t>
-  </si>
-  <si>
-    <t>37,12%</t>
-  </si>
-  <si>
-    <t>43,43%</t>
-  </si>
-  <si>
-    <t>26,03%</t>
-  </si>
-  <si>
-    <t>23,06%</t>
-  </si>
-  <si>
-    <t>28,65%</t>
-  </si>
-  <si>
-    <t>32,86%</t>
-  </si>
-  <si>
-    <t>30,78%</t>
-  </si>
-  <si>
-    <t>34,95%</t>
-  </si>
-  <si>
-    <t>38,49%</t>
-  </si>
-  <si>
-    <t>36,81%</t>
-  </si>
-  <si>
-    <t>40,16%</t>
-  </si>
-  <si>
-    <t>66,87%</t>
-  </si>
-  <si>
-    <t>65,3%</t>
-  </si>
-  <si>
-    <t>68,5%</t>
-  </si>
-  <si>
-    <t>52,9%</t>
-  </si>
-  <si>
-    <t>51,6%</t>
-  </si>
-  <si>
-    <t>54,13%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
-  </si>
-  <si>
-    <t>17,77%</t>
-  </si>
-  <si>
-    <t>20,6%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>39,7%</t>
-  </si>
-  <si>
-    <t>38,0%</t>
-  </si>
-  <si>
-    <t>41,4%</t>
-  </si>
-  <si>
-    <t>23,05%</t>
-  </si>
-  <si>
-    <t>21,71%</t>
-  </si>
-  <si>
-    <t>24,57%</t>
-  </si>
-  <si>
-    <t>31,24%</t>
-  </si>
-  <si>
-    <t>30,17%</t>
-  </si>
-  <si>
-    <t>32,44%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según consumo de tabaco en 2012 (Tasa respuesta: 99,95%)</t>
-  </si>
-  <si>
-    <t>32,91%</t>
-  </si>
-  <si>
-    <t>25,08%</t>
-  </si>
-  <si>
-    <t>42,27%</t>
-  </si>
-  <si>
-    <t>69,32%</t>
-  </si>
-  <si>
-    <t>60,07%</t>
-  </si>
-  <si>
-    <t>78,19%</t>
-  </si>
-  <si>
-    <t>43,93%</t>
-  </si>
-  <si>
-    <t>57,09%</t>
-  </si>
-  <si>
-    <t>22,46%</t>
-  </si>
-  <si>
-    <t>15,72%</t>
-  </si>
-  <si>
-    <t>30,28%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>20,97%</t>
-  </si>
-  <si>
-    <t>17,71%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>23,24%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>42,52%</t>
-  </si>
-  <si>
-    <t>32,94%</t>
-  </si>
-  <si>
-    <t>52,55%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>26,21%</t>
-  </si>
-  <si>
-    <t>30,41%</t>
-  </si>
-  <si>
-    <t>24,89%</t>
-  </si>
-  <si>
-    <t>37,14%</t>
-  </si>
-  <si>
-    <t>33,94%</t>
-  </si>
-  <si>
-    <t>30,16%</t>
-  </si>
-  <si>
-    <t>37,95%</t>
-  </si>
-  <si>
-    <t>65,64%</t>
-  </si>
-  <si>
-    <t>61,39%</t>
-  </si>
-  <si>
-    <t>69,4%</t>
-  </si>
-  <si>
-    <t>49,76%</t>
-  </si>
-  <si>
-    <t>46,56%</t>
-  </si>
-  <si>
-    <t>52,51%</t>
-  </si>
-  <si>
-    <t>28,98%</t>
-  </si>
-  <si>
-    <t>25,42%</t>
-  </si>
-  <si>
-    <t>32,97%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>17,37%</t>
-  </si>
-  <si>
-    <t>22,04%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>35,71%</t>
-  </si>
-  <si>
-    <t>32,0%</t>
-  </si>
-  <si>
-    <t>39,52%</t>
-  </si>
-  <si>
-    <t>21,94%</t>
-  </si>
-  <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>25,76%</t>
-  </si>
-  <si>
-    <t>28,84%</t>
-  </si>
-  <si>
-    <t>25,95%</t>
-  </si>
-  <si>
-    <t>31,54%</t>
-  </si>
-  <si>
-    <t>34,78%</t>
-  </si>
-  <si>
-    <t>31,53%</t>
-  </si>
-  <si>
-    <t>37,67%</t>
-  </si>
-  <si>
-    <t>62,35%</t>
-  </si>
-  <si>
-    <t>59,19%</t>
-  </si>
-  <si>
-    <t>65,6%</t>
-  </si>
-  <si>
-    <t>48,67%</t>
-  </si>
-  <si>
-    <t>46,16%</t>
-  </si>
-  <si>
-    <t>50,8%</t>
-  </si>
-  <si>
-    <t>25,34%</t>
-  </si>
-  <si>
-    <t>22,58%</t>
-  </si>
-  <si>
-    <t>28,17%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>19,1%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>36,99%</t>
-  </si>
-  <si>
-    <t>34,18%</t>
-  </si>
-  <si>
-    <t>40,3%</t>
-  </si>
-  <si>
-    <t>26,06%</t>
-  </si>
-  <si>
-    <t>23,33%</t>
-  </si>
-  <si>
-    <t>29,16%</t>
-  </si>
-  <si>
-    <t>31,48%</t>
-  </si>
-  <si>
-    <t>29,47%</t>
-  </si>
-  <si>
-    <t>33,69%</t>
-  </si>
-  <si>
-    <t>35,17%</t>
-  </si>
-  <si>
-    <t>31,64%</t>
-  </si>
-  <si>
-    <t>39,3%</t>
-  </si>
-  <si>
-    <t>56,56%</t>
-  </si>
-  <si>
-    <t>52,79%</t>
-  </si>
-  <si>
-    <t>60,25%</t>
-  </si>
-  <si>
-    <t>46,0%</t>
-  </si>
-  <si>
-    <t>43,17%</t>
-  </si>
-  <si>
-    <t>48,56%</t>
-  </si>
-  <si>
-    <t>23,29%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>26,78%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>16,48%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>20,88%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>37,71%</t>
-  </si>
-  <si>
-    <t>34,15%</t>
-  </si>
-  <si>
-    <t>41,22%</t>
-  </si>
-  <si>
-    <t>26,83%</t>
-  </si>
-  <si>
-    <t>23,51%</t>
-  </si>
-  <si>
-    <t>30,14%</t>
-  </si>
-  <si>
-    <t>32,21%</t>
-  </si>
-  <si>
-    <t>29,99%</t>
-  </si>
-  <si>
-    <t>34,91%</t>
-  </si>
-  <si>
-    <t>39,48%</t>
-  </si>
-  <si>
-    <t>35,82%</t>
-  </si>
-  <si>
-    <t>42,85%</t>
-  </si>
-  <si>
-    <t>61,15%</t>
-  </si>
-  <si>
-    <t>58,05%</t>
-  </si>
-  <si>
-    <t>64,1%</t>
-  </si>
-  <si>
-    <t>50,87%</t>
-  </si>
-  <si>
-    <t>48,82%</t>
-  </si>
-  <si>
-    <t>53,24%</t>
-  </si>
-  <si>
-    <t>21,98%</t>
-  </si>
-  <si>
-    <t>19,19%</t>
-  </si>
-  <si>
-    <t>24,84%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>18,01%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>35,68%</t>
-  </si>
-  <si>
-    <t>32,79%</t>
-  </si>
-  <si>
-    <t>39,11%</t>
-  </si>
-  <si>
-    <t>26,33%</t>
-  </si>
-  <si>
-    <t>29,11%</t>
-  </si>
-  <si>
-    <t>30,77%</t>
-  </si>
-  <si>
-    <t>28,76%</t>
-  </si>
-  <si>
-    <t>32,83%</t>
-  </si>
-  <si>
-    <t>35,96%</t>
-  </si>
-  <si>
-    <t>34,31%</t>
-  </si>
-  <si>
-    <t>61,49%</t>
-  </si>
-  <si>
-    <t>59,77%</t>
-  </si>
-  <si>
-    <t>63,1%</t>
-  </si>
-  <si>
-    <t>48,96%</t>
-  </si>
-  <si>
-    <t>47,7%</t>
-  </si>
-  <si>
-    <t>50,23%</t>
-  </si>
-  <si>
-    <t>24,49%</t>
-  </si>
-  <si>
-    <t>23,08%</t>
-  </si>
-  <si>
-    <t>26,19%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>36,76%</t>
-  </si>
-  <si>
-    <t>34,99%</t>
-  </si>
-  <si>
-    <t>38,29%</t>
-  </si>
-  <si>
-    <t>25,37%</t>
-  </si>
-  <si>
-    <t>23,77%</t>
-  </si>
-  <si>
-    <t>26,88%</t>
-  </si>
-  <si>
-    <t>30,96%</t>
-  </si>
-  <si>
-    <t>29,88%</t>
-  </si>
-  <si>
-    <t>32,12%</t>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>32,32%</t>
+  </si>
+  <si>
+    <t>30,89%</t>
+  </si>
+  <si>
+    <t>33,96%</t>
+  </si>
+  <si>
+    <t>24,02%</t>
+  </si>
+  <si>
+    <t>22,62%</t>
+  </si>
+  <si>
+    <t>25,61%</t>
+  </si>
+  <si>
+    <t>28,08%</t>
+  </si>
+  <si>
+    <t>26,97%</t>
+  </si>
+  <si>
+    <t>29,18%</t>
   </si>
 </sst>
 </file>
@@ -1756,8 +2024,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16296172-0384-427D-A57D-9AB35D22354E}">
-  <dimension ref="A1:Q34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF88B303-50B0-4CC2-A8A1-6F363131C630}">
+  <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1874,10 +2142,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>29</v>
+        <v>241</v>
       </c>
       <c r="D4" s="7">
-        <v>32664</v>
+        <v>243131</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1889,10 +2157,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>93</v>
+        <v>492</v>
       </c>
       <c r="I4" s="7">
-        <v>80364</v>
+        <v>484100</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1904,10 +2172,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>122</v>
+        <v>733</v>
       </c>
       <c r="N4" s="7">
-        <v>113028</v>
+        <v>727231</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1925,10 +2193,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>33</v>
+        <v>132</v>
       </c>
       <c r="D5" s="7">
-        <v>36123</v>
+        <v>131600</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1940,10 +2208,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="I5" s="7">
-        <v>11693</v>
+        <v>42452</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1955,10 +2223,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>45</v>
+        <v>174</v>
       </c>
       <c r="N5" s="7">
-        <v>47816</v>
+        <v>174052</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1976,10 +2244,10 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="D6" s="7">
-        <v>3215</v>
+        <v>17571</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -1991,10 +2259,10 @@
         <v>33</v>
       </c>
       <c r="H6" s="7">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="I6" s="7">
-        <v>2400</v>
+        <v>18353</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -2006,10 +2274,10 @@
         <v>36</v>
       </c>
       <c r="M6" s="7">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="N6" s="7">
-        <v>5615</v>
+        <v>35924</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>37</v>
@@ -2027,10 +2295,10 @@
         <v>40</v>
       </c>
       <c r="C7" s="7">
-        <v>40</v>
+        <v>293</v>
       </c>
       <c r="D7" s="7">
-        <v>43356</v>
+        <v>301710</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>41</v>
@@ -2042,10 +2310,10 @@
         <v>43</v>
       </c>
       <c r="H7" s="7">
-        <v>20</v>
+        <v>143</v>
       </c>
       <c r="I7" s="7">
-        <v>18299</v>
+        <v>143446</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>44</v>
@@ -2057,10 +2325,10 @@
         <v>46</v>
       </c>
       <c r="M7" s="7">
-        <v>60</v>
+        <v>436</v>
       </c>
       <c r="N7" s="7">
-        <v>61654</v>
+        <v>445156</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>47</v>
@@ -2078,10 +2346,10 @@
         <v>3</v>
       </c>
       <c r="C8" s="7">
-        <v>105</v>
+        <v>683</v>
       </c>
       <c r="D8" s="7">
-        <v>115358</v>
+        <v>694012</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>50</v>
@@ -2093,10 +2361,10 @@
         <v>50</v>
       </c>
       <c r="H8" s="7">
-        <v>128</v>
+        <v>696</v>
       </c>
       <c r="I8" s="7">
-        <v>112755</v>
+        <v>688351</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>50</v>
@@ -2108,10 +2376,10 @@
         <v>50</v>
       </c>
       <c r="M8" s="7">
-        <v>233</v>
+        <v>1379</v>
       </c>
       <c r="N8" s="7">
-        <v>228113</v>
+        <v>1382363</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>50</v>
@@ -2131,10 +2399,10 @@
         <v>10</v>
       </c>
       <c r="C9" s="7">
-        <v>212</v>
+        <v>339</v>
       </c>
       <c r="D9" s="7">
-        <v>210467</v>
+        <v>365621</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>52</v>
@@ -2146,10 +2414,10 @@
         <v>54</v>
       </c>
       <c r="H9" s="7">
-        <v>399</v>
+        <v>618</v>
       </c>
       <c r="I9" s="7">
-        <v>403736</v>
+        <v>660878</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>55</v>
@@ -2161,10 +2429,10 @@
         <v>57</v>
       </c>
       <c r="M9" s="7">
-        <v>611</v>
+        <v>957</v>
       </c>
       <c r="N9" s="7">
-        <v>614203</v>
+        <v>1026499</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>58</v>
@@ -2182,10 +2450,10 @@
         <v>20</v>
       </c>
       <c r="C10" s="7">
-        <v>99</v>
+        <v>178</v>
       </c>
       <c r="D10" s="7">
-        <v>95477</v>
+        <v>188856</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>61</v>
@@ -2197,10 +2465,10 @@
         <v>63</v>
       </c>
       <c r="H10" s="7">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="I10" s="7">
-        <v>30759</v>
+        <v>80380</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>64</v>
@@ -2212,10 +2480,10 @@
         <v>66</v>
       </c>
       <c r="M10" s="7">
-        <v>129</v>
+        <v>253</v>
       </c>
       <c r="N10" s="7">
-        <v>126236</v>
+        <v>269236</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>67</v>
@@ -2233,10 +2501,10 @@
         <v>30</v>
       </c>
       <c r="C11" s="7">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D11" s="7">
-        <v>14355</v>
+        <v>26037</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>70</v>
@@ -2251,7 +2519,7 @@
         <v>16</v>
       </c>
       <c r="I11" s="7">
-        <v>15953</v>
+        <v>15320</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>73</v>
@@ -2263,10 +2531,10 @@
         <v>75</v>
       </c>
       <c r="M11" s="7">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="N11" s="7">
-        <v>30309</v>
+        <v>41357</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>76</v>
@@ -2284,10 +2552,10 @@
         <v>40</v>
       </c>
       <c r="C12" s="7">
-        <v>253</v>
+        <v>353</v>
       </c>
       <c r="D12" s="7">
-        <v>258354</v>
+        <v>380244</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>79</v>
@@ -2299,10 +2567,10 @@
         <v>81</v>
       </c>
       <c r="H12" s="7">
-        <v>123</v>
+        <v>199</v>
       </c>
       <c r="I12" s="7">
-        <v>125148</v>
+        <v>211816</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>82</v>
@@ -2314,10 +2582,10 @@
         <v>84</v>
       </c>
       <c r="M12" s="7">
-        <v>376</v>
+        <v>552</v>
       </c>
       <c r="N12" s="7">
-        <v>383502</v>
+        <v>592059</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>85</v>
@@ -2335,10 +2603,10 @@
         <v>3</v>
       </c>
       <c r="C13" s="7">
-        <v>578</v>
+        <v>895</v>
       </c>
       <c r="D13" s="7">
-        <v>578654</v>
+        <v>960758</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>50</v>
@@ -2350,10 +2618,10 @@
         <v>50</v>
       </c>
       <c r="H13" s="7">
-        <v>568</v>
+        <v>908</v>
       </c>
       <c r="I13" s="7">
-        <v>575596</v>
+        <v>968393</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>50</v>
@@ -2365,10 +2633,10 @@
         <v>50</v>
       </c>
       <c r="M13" s="7">
-        <v>1146</v>
+        <v>1803</v>
       </c>
       <c r="N13" s="7">
-        <v>1154250</v>
+        <v>1929151</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>50</v>
@@ -2388,10 +2656,10 @@
         <v>10</v>
       </c>
       <c r="C14" s="7">
-        <v>339</v>
+        <v>273</v>
       </c>
       <c r="D14" s="7">
-        <v>365621</v>
+        <v>290232</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>89</v>
@@ -2403,10 +2671,10 @@
         <v>91</v>
       </c>
       <c r="H14" s="7">
-        <v>618</v>
+        <v>479</v>
       </c>
       <c r="I14" s="7">
-        <v>660878</v>
+        <v>474157</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>92</v>
@@ -2418,19 +2686,19 @@
         <v>94</v>
       </c>
       <c r="M14" s="7">
-        <v>957</v>
+        <v>752</v>
       </c>
       <c r="N14" s="7">
-        <v>1026499</v>
+        <v>764389</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>58</v>
+        <v>95</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2439,49 +2707,49 @@
         <v>20</v>
       </c>
       <c r="C15" s="7">
-        <v>178</v>
+        <v>130</v>
       </c>
       <c r="D15" s="7">
-        <v>188856</v>
+        <v>134301</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H15" s="7">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="I15" s="7">
-        <v>80380</v>
+        <v>39683</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M15" s="7">
-        <v>253</v>
+        <v>171</v>
       </c>
       <c r="N15" s="7">
-        <v>269236</v>
+        <v>173984</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2490,49 +2758,49 @@
         <v>30</v>
       </c>
       <c r="C16" s="7">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D16" s="7">
-        <v>26037</v>
+        <v>16269</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H16" s="7">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I16" s="7">
-        <v>15320</v>
+        <v>16853</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>110</v>
+        <v>77</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>70</v>
+        <v>111</v>
       </c>
       <c r="M16" s="7">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="N16" s="7">
-        <v>41357</v>
+        <v>33122</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2541,13 +2809,13 @@
         <v>40</v>
       </c>
       <c r="C17" s="7">
-        <v>353</v>
+        <v>222</v>
       </c>
       <c r="D17" s="7">
-        <v>380244</v>
+        <v>237706</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>114</v>
+        <v>11</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>115</v>
@@ -2556,10 +2824,10 @@
         <v>116</v>
       </c>
       <c r="H17" s="7">
-        <v>199</v>
+        <v>158</v>
       </c>
       <c r="I17" s="7">
-        <v>211816</v>
+        <v>153148</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>117</v>
@@ -2571,10 +2839,10 @@
         <v>119</v>
       </c>
       <c r="M17" s="7">
-        <v>552</v>
+        <v>380</v>
       </c>
       <c r="N17" s="7">
-        <v>592059</v>
+        <v>390854</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>120</v>
@@ -2592,10 +2860,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>895</v>
+        <v>641</v>
       </c>
       <c r="D18" s="7">
-        <v>960758</v>
+        <v>678509</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>50</v>
@@ -2607,10 +2875,10 @@
         <v>50</v>
       </c>
       <c r="H18" s="7">
-        <v>908</v>
+        <v>696</v>
       </c>
       <c r="I18" s="7">
-        <v>968393</v>
+        <v>683841</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>50</v>
@@ -2622,10 +2890,10 @@
         <v>50</v>
       </c>
       <c r="M18" s="7">
-        <v>1803</v>
+        <v>1337</v>
       </c>
       <c r="N18" s="7">
-        <v>1929151</v>
+        <v>1362350</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>50</v>
@@ -2645,10 +2913,10 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>273</v>
+        <v>385</v>
       </c>
       <c r="D19" s="7">
-        <v>290232</v>
+        <v>361682</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>124</v>
@@ -2660,10 +2928,10 @@
         <v>126</v>
       </c>
       <c r="H19" s="7">
-        <v>479</v>
+        <v>615</v>
       </c>
       <c r="I19" s="7">
-        <v>474157</v>
+        <v>640389</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>127</v>
@@ -2675,10 +2943,10 @@
         <v>129</v>
       </c>
       <c r="M19" s="7">
-        <v>752</v>
+        <v>1000</v>
       </c>
       <c r="N19" s="7">
-        <v>764389</v>
+        <v>1002071</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>130</v>
@@ -2696,10 +2964,10 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>130</v>
+        <v>186</v>
       </c>
       <c r="D20" s="7">
-        <v>134301</v>
+        <v>174795</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>133</v>
@@ -2711,10 +2979,10 @@
         <v>135</v>
       </c>
       <c r="H20" s="7">
-        <v>41</v>
+        <v>90</v>
       </c>
       <c r="I20" s="7">
-        <v>39683</v>
+        <v>93829</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>136</v>
@@ -2726,10 +2994,10 @@
         <v>138</v>
       </c>
       <c r="M20" s="7">
-        <v>171</v>
+        <v>276</v>
       </c>
       <c r="N20" s="7">
-        <v>173984</v>
+        <v>268624</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>139</v>
@@ -2747,49 +3015,49 @@
         <v>30</v>
       </c>
       <c r="C21" s="7">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D21" s="7">
-        <v>16269</v>
+        <v>25161</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="G21" s="7" t="s">
+      <c r="H21" s="7">
+        <v>32</v>
+      </c>
+      <c r="I21" s="7">
+        <v>33993</v>
+      </c>
+      <c r="J21" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="H21" s="7">
-        <v>18</v>
-      </c>
-      <c r="I21" s="7">
-        <v>16853</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>37</v>
-      </c>
       <c r="K21" s="7" t="s">
-        <v>112</v>
+        <v>145</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M21" s="7">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="N21" s="7">
-        <v>33122</v>
+        <v>59153</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2798,49 +3066,49 @@
         <v>40</v>
       </c>
       <c r="C22" s="7">
-        <v>222</v>
+        <v>397</v>
       </c>
       <c r="D22" s="7">
-        <v>237706</v>
+        <v>380584</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H22" s="7">
+        <v>260</v>
+      </c>
+      <c r="I22" s="7">
+        <v>270402</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="M22" s="7">
+        <v>657</v>
+      </c>
+      <c r="N22" s="7">
+        <v>650986</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="I22" s="7">
-        <v>153148</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="M22" s="7">
-        <v>380</v>
-      </c>
-      <c r="N22" s="7">
-        <v>390854</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2849,10 +3117,10 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>641</v>
+        <v>994</v>
       </c>
       <c r="D23" s="7">
-        <v>678509</v>
+        <v>942222</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>50</v>
@@ -2864,10 +3132,10 @@
         <v>50</v>
       </c>
       <c r="H23" s="7">
-        <v>696</v>
+        <v>997</v>
       </c>
       <c r="I23" s="7">
-        <v>683841</v>
+        <v>1038612</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>50</v>
@@ -2879,10 +3147,10 @@
         <v>50</v>
       </c>
       <c r="M23" s="7">
-        <v>1337</v>
+        <v>1991</v>
       </c>
       <c r="N23" s="7">
-        <v>1362350</v>
+        <v>1980834</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>50</v>
@@ -2896,16 +3164,16 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>158</v>
+        <v>3</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>385</v>
+        <v>1238</v>
       </c>
       <c r="D24" s="7">
-        <v>361682</v>
+        <v>1260667</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>159</v>
@@ -2917,10 +3185,10 @@
         <v>161</v>
       </c>
       <c r="H24" s="7">
-        <v>615</v>
+        <v>2204</v>
       </c>
       <c r="I24" s="7">
-        <v>640389</v>
+        <v>2259523</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>162</v>
@@ -2932,10 +3200,10 @@
         <v>164</v>
       </c>
       <c r="M24" s="7">
-        <v>1000</v>
+        <v>3442</v>
       </c>
       <c r="N24" s="7">
-        <v>1002071</v>
+        <v>3520190</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>165</v>
@@ -2953,10 +3221,10 @@
         <v>20</v>
       </c>
       <c r="C25" s="7">
-        <v>186</v>
+        <v>626</v>
       </c>
       <c r="D25" s="7">
-        <v>174795</v>
+        <v>629553</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>168</v>
@@ -2968,10 +3236,10 @@
         <v>170</v>
       </c>
       <c r="H25" s="7">
-        <v>90</v>
+        <v>248</v>
       </c>
       <c r="I25" s="7">
-        <v>93829</v>
+        <v>256344</v>
       </c>
       <c r="J25" s="7" t="s">
         <v>171</v>
@@ -2983,10 +3251,10 @@
         <v>173</v>
       </c>
       <c r="M25" s="7">
-        <v>276</v>
+        <v>874</v>
       </c>
       <c r="N25" s="7">
-        <v>268624</v>
+        <v>885897</v>
       </c>
       <c r="O25" s="7" t="s">
         <v>174</v>
@@ -3004,49 +3272,49 @@
         <v>30</v>
       </c>
       <c r="C26" s="7">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="D26" s="7">
-        <v>25161</v>
+        <v>85037</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="G26" s="7" t="s">
+      <c r="H26" s="7">
+        <v>85</v>
+      </c>
+      <c r="I26" s="7">
+        <v>84519</v>
+      </c>
+      <c r="J26" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="H26" s="7">
-        <v>32</v>
-      </c>
-      <c r="I26" s="7">
-        <v>33993</v>
-      </c>
-      <c r="J26" s="7" t="s">
+      <c r="K26" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="L26" s="7" t="s">
+      <c r="M26" s="7">
+        <v>169</v>
+      </c>
+      <c r="N26" s="7">
+        <v>169556</v>
+      </c>
+      <c r="O26" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="M26" s="7">
-        <v>58</v>
-      </c>
-      <c r="N26" s="7">
-        <v>59153</v>
-      </c>
-      <c r="O26" s="7" t="s">
+      <c r="P26" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3055,49 +3323,49 @@
         <v>40</v>
       </c>
       <c r="C27" s="7">
-        <v>397</v>
+        <v>1265</v>
       </c>
       <c r="D27" s="7">
-        <v>380584</v>
+        <v>1300244</v>
       </c>
       <c r="E27" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="F27" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="G27" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="G27" s="7" t="s">
+      <c r="H27" s="7">
+        <v>760</v>
+      </c>
+      <c r="I27" s="7">
+        <v>778811</v>
+      </c>
+      <c r="J27" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="H27" s="7">
-        <v>260</v>
-      </c>
-      <c r="I27" s="7">
-        <v>270402</v>
-      </c>
-      <c r="J27" s="7" t="s">
+      <c r="K27" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="K27" s="7" t="s">
+      <c r="L27" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="L27" s="7" t="s">
+      <c r="M27" s="7">
+        <v>2025</v>
+      </c>
+      <c r="N27" s="7">
+        <v>2079056</v>
+      </c>
+      <c r="O27" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="M27" s="7">
-        <v>657</v>
-      </c>
-      <c r="N27" s="7">
-        <v>650986</v>
-      </c>
-      <c r="O27" s="7" t="s">
+      <c r="P27" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="P27" s="7" t="s">
+      <c r="Q27" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -3106,10 +3374,10 @@
         <v>3</v>
       </c>
       <c r="C28" s="7">
-        <v>994</v>
+        <v>3213</v>
       </c>
       <c r="D28" s="7">
-        <v>942222</v>
+        <v>3275501</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>50</v>
@@ -3121,10 +3389,10 @@
         <v>50</v>
       </c>
       <c r="H28" s="7">
-        <v>997</v>
+        <v>3297</v>
       </c>
       <c r="I28" s="7">
-        <v>1038612</v>
+        <v>3379197</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>50</v>
@@ -3136,10 +3404,10 @@
         <v>50</v>
       </c>
       <c r="M28" s="7">
-        <v>1991</v>
+        <v>6510</v>
       </c>
       <c r="N28" s="7">
-        <v>1980834</v>
+        <v>6654698</v>
       </c>
       <c r="O28" s="7" t="s">
         <v>50</v>
@@ -3152,273 +3420,15 @@
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C29" s="7">
-        <v>1238</v>
-      </c>
-      <c r="D29" s="7">
-        <v>1260667</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="H29" s="7">
-        <v>2204</v>
-      </c>
-      <c r="I29" s="7">
-        <v>2259524</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="M29" s="7">
-        <v>3442</v>
-      </c>
-      <c r="N29" s="7">
-        <v>3520190</v>
-      </c>
-      <c r="O29" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A30" s="1"/>
-      <c r="B30" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C30" s="7">
-        <v>626</v>
-      </c>
-      <c r="D30" s="7">
-        <v>629553</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="H30" s="7">
-        <v>248</v>
-      </c>
-      <c r="I30" s="7">
-        <v>256344</v>
-      </c>
-      <c r="J30" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="M30" s="7">
-        <v>874</v>
-      </c>
-      <c r="N30" s="7">
-        <v>885897</v>
-      </c>
-      <c r="O30" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A31" s="1"/>
-      <c r="B31" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C31" s="7">
-        <v>84</v>
-      </c>
-      <c r="D31" s="7">
-        <v>85037</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="H31" s="7">
-        <v>85</v>
-      </c>
-      <c r="I31" s="7">
-        <v>84519</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="M31" s="7">
-        <v>169</v>
-      </c>
-      <c r="N31" s="7">
-        <v>169556</v>
-      </c>
-      <c r="O31" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" s="1"/>
-      <c r="B32" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C32" s="7">
-        <v>1265</v>
-      </c>
-      <c r="D32" s="7">
-        <v>1300244</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="H32" s="7">
-        <v>760</v>
-      </c>
-      <c r="I32" s="7">
-        <v>778812</v>
-      </c>
-      <c r="J32" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="M32" s="7">
-        <v>2025</v>
-      </c>
-      <c r="N32" s="7">
-        <v>2079056</v>
-      </c>
-      <c r="O32" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A33" s="1"/>
-      <c r="B33" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C33" s="7">
-        <v>3213</v>
-      </c>
-      <c r="D33" s="7">
-        <v>3275501</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="H33" s="7">
-        <v>3297</v>
-      </c>
-      <c r="I33" s="7">
-        <v>3379198</v>
-      </c>
-      <c r="J33" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="K33" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="L33" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="M33" s="7">
-        <v>6510</v>
-      </c>
-      <c r="N33" s="7">
-        <v>6654698</v>
-      </c>
-      <c r="O33" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="P33" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q33" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>231</v>
+      <c r="A29" t="s">
+        <v>194</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A14:A18"/>
     <mergeCell ref="A19:A23"/>
     <mergeCell ref="A24:A28"/>
-    <mergeCell ref="A29:A33"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3431,8 +3441,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13F1736D-9E60-4F10-9596-653F31E0FF9C}">
-  <dimension ref="A1:Q34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C76FEFCF-0612-424A-BDEA-631E6E968521}">
+  <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3448,7 +3458,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>232</v>
+        <v>195</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3549,49 +3559,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>40</v>
+        <v>229</v>
       </c>
       <c r="D4" s="7">
-        <v>38099</v>
+        <v>237577</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>233</v>
+        <v>196</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>234</v>
+        <v>197</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>235</v>
+        <v>198</v>
       </c>
       <c r="H4" s="7">
-        <v>70</v>
+        <v>433</v>
       </c>
       <c r="I4" s="7">
-        <v>77571</v>
+        <v>461670</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>236</v>
+        <v>199</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>237</v>
+        <v>200</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>238</v>
+        <v>201</v>
       </c>
       <c r="M4" s="7">
-        <v>110</v>
+        <v>662</v>
       </c>
       <c r="N4" s="7">
-        <v>115670</v>
+        <v>699247</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>95</v>
+        <v>202</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>239</v>
+        <v>203</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>240</v>
+        <v>204</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3600,49 +3610,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>30</v>
+        <v>185</v>
       </c>
       <c r="D5" s="7">
-        <v>26006</v>
+        <v>196310</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>241</v>
+        <v>205</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>242</v>
+        <v>206</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>243</v>
+        <v>207</v>
       </c>
       <c r="H5" s="7">
-        <v>12</v>
+        <v>69</v>
       </c>
       <c r="I5" s="7">
-        <v>14316</v>
+        <v>73539</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>244</v>
+        <v>208</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>245</v>
+        <v>209</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>246</v>
+        <v>210</v>
       </c>
       <c r="M5" s="7">
-        <v>42</v>
+        <v>254</v>
       </c>
       <c r="N5" s="7">
-        <v>40322</v>
+        <v>269849</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>247</v>
+        <v>211</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>248</v>
+        <v>212</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>249</v>
+        <v>213</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3651,49 +3661,49 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D6" s="7">
-        <v>2435</v>
+        <v>10461</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>250</v>
+        <v>214</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>251</v>
+        <v>215</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>252</v>
+        <v>216</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="I6" s="7">
-        <v>0</v>
+        <v>13422</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>253</v>
+        <v>217</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>254</v>
+        <v>218</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>255</v>
+        <v>219</v>
       </c>
       <c r="M6" s="7">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="N6" s="7">
-        <v>2435</v>
+        <v>23884</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>256</v>
+        <v>35</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>257</v>
+        <v>220</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>258</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3702,49 +3712,49 @@
         <v>40</v>
       </c>
       <c r="C7" s="7">
-        <v>49</v>
+        <v>249</v>
       </c>
       <c r="D7" s="7">
-        <v>49225</v>
+        <v>259121</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>259</v>
+        <v>221</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>260</v>
+        <v>222</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>261</v>
+        <v>223</v>
       </c>
       <c r="H7" s="7">
-        <v>17</v>
+        <v>136</v>
       </c>
       <c r="I7" s="7">
-        <v>20018</v>
+        <v>148418</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>262</v>
+        <v>135</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>263</v>
+        <v>224</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>264</v>
+        <v>225</v>
       </c>
       <c r="M7" s="7">
-        <v>66</v>
+        <v>385</v>
       </c>
       <c r="N7" s="7">
-        <v>69243</v>
+        <v>407539</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>265</v>
+        <v>226</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>266</v>
+        <v>227</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>267</v>
+        <v>228</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3753,10 +3763,10 @@
         <v>3</v>
       </c>
       <c r="C8" s="7">
-        <v>122</v>
+        <v>674</v>
       </c>
       <c r="D8" s="7">
-        <v>115765</v>
+        <v>703469</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>50</v>
@@ -3768,10 +3778,10 @@
         <v>50</v>
       </c>
       <c r="H8" s="7">
-        <v>99</v>
+        <v>650</v>
       </c>
       <c r="I8" s="7">
-        <v>111905</v>
+        <v>697050</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>50</v>
@@ -3783,10 +3793,10 @@
         <v>50</v>
       </c>
       <c r="M8" s="7">
-        <v>221</v>
+        <v>1324</v>
       </c>
       <c r="N8" s="7">
-        <v>227670</v>
+        <v>1400519</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>50</v>
@@ -3806,49 +3816,49 @@
         <v>10</v>
       </c>
       <c r="C9" s="7">
-        <v>189</v>
+        <v>328</v>
       </c>
       <c r="D9" s="7">
-        <v>199478</v>
+        <v>353707</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>268</v>
+        <v>229</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>269</v>
+        <v>230</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>270</v>
+        <v>231</v>
       </c>
       <c r="H9" s="7">
-        <v>363</v>
+        <v>585</v>
       </c>
       <c r="I9" s="7">
-        <v>384099</v>
+        <v>643516</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>271</v>
+        <v>232</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>272</v>
+        <v>233</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>273</v>
+        <v>234</v>
       </c>
       <c r="M9" s="7">
-        <v>552</v>
+        <v>913</v>
       </c>
       <c r="N9" s="7">
-        <v>583577</v>
+        <v>997223</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>274</v>
+        <v>235</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>275</v>
+        <v>236</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>276</v>
+        <v>237</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3857,49 +3867,49 @@
         <v>20</v>
       </c>
       <c r="C10" s="7">
-        <v>155</v>
+        <v>236</v>
       </c>
       <c r="D10" s="7">
-        <v>170304</v>
+        <v>257713</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>277</v>
+        <v>238</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>278</v>
+        <v>239</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>279</v>
+        <v>240</v>
       </c>
       <c r="H10" s="7">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="I10" s="7">
-        <v>59223</v>
+        <v>98321</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>280</v>
+        <v>241</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>281</v>
+        <v>242</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>282</v>
+        <v>243</v>
       </c>
       <c r="M10" s="7">
-        <v>212</v>
+        <v>326</v>
       </c>
       <c r="N10" s="7">
-        <v>229527</v>
+        <v>356033</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>283</v>
+        <v>244</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>284</v>
+        <v>245</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>285</v>
+        <v>246</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3908,49 +3918,49 @@
         <v>30</v>
       </c>
       <c r="C11" s="7">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="D11" s="7">
-        <v>8027</v>
+        <v>29356</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>286</v>
+        <v>247</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>287</v>
+        <v>248</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>288</v>
+        <v>249</v>
       </c>
       <c r="H11" s="7">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="I11" s="7">
-        <v>13422</v>
+        <v>21379</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>289</v>
+        <v>250</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>290</v>
+        <v>251</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>291</v>
+        <v>252</v>
       </c>
       <c r="M11" s="7">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="N11" s="7">
-        <v>21449</v>
+        <v>50736</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>292</v>
+        <v>75</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>293</v>
+        <v>38</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>294</v>
+        <v>253</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3959,49 +3969,49 @@
         <v>40</v>
       </c>
       <c r="C12" s="7">
-        <v>200</v>
+        <v>345</v>
       </c>
       <c r="D12" s="7">
-        <v>209896</v>
+        <v>376142</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>295</v>
+        <v>254</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>296</v>
+        <v>255</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>297</v>
+        <v>256</v>
       </c>
       <c r="H12" s="7">
-        <v>119</v>
+        <v>246</v>
       </c>
       <c r="I12" s="7">
-        <v>128400</v>
+        <v>268968</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>298</v>
+        <v>257</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>299</v>
+        <v>258</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>300</v>
+        <v>259</v>
       </c>
       <c r="M12" s="7">
-        <v>319</v>
+        <v>591</v>
       </c>
       <c r="N12" s="7">
-        <v>338296</v>
+        <v>645110</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>301</v>
+        <v>260</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>302</v>
+        <v>261</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>303</v>
+        <v>262</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4010,10 +4020,10 @@
         <v>3</v>
       </c>
       <c r="C13" s="7">
-        <v>552</v>
+        <v>935</v>
       </c>
       <c r="D13" s="7">
-        <v>587704</v>
+        <v>1016918</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>50</v>
@@ -4025,10 +4035,10 @@
         <v>50</v>
       </c>
       <c r="H13" s="7">
-        <v>551</v>
+        <v>940</v>
       </c>
       <c r="I13" s="7">
-        <v>585145</v>
+        <v>1032184</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>50</v>
@@ -4040,10 +4050,10 @@
         <v>50</v>
       </c>
       <c r="M13" s="7">
-        <v>1103</v>
+        <v>1875</v>
       </c>
       <c r="N13" s="7">
-        <v>1172849</v>
+        <v>2049102</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>50</v>
@@ -4063,49 +4073,49 @@
         <v>10</v>
       </c>
       <c r="C14" s="7">
-        <v>328</v>
+        <v>246</v>
       </c>
       <c r="D14" s="7">
-        <v>353707</v>
+        <v>266459</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>304</v>
+        <v>263</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>305</v>
+        <v>264</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>306</v>
+        <v>265</v>
       </c>
       <c r="H14" s="7">
-        <v>585</v>
+        <v>403</v>
       </c>
       <c r="I14" s="7">
-        <v>643516</v>
+        <v>439041</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>307</v>
+        <v>266</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>308</v>
+        <v>267</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>309</v>
+        <v>268</v>
       </c>
       <c r="M14" s="7">
-        <v>913</v>
+        <v>649</v>
       </c>
       <c r="N14" s="7">
-        <v>997223</v>
+        <v>705500</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>310</v>
+        <v>269</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>311</v>
+        <v>270</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>312</v>
+        <v>271</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4114,49 +4124,49 @@
         <v>20</v>
       </c>
       <c r="C15" s="7">
-        <v>236</v>
+        <v>158</v>
       </c>
       <c r="D15" s="7">
-        <v>257713</v>
+        <v>176487</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>313</v>
+        <v>272</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>314</v>
+        <v>273</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>315</v>
+        <v>274</v>
       </c>
       <c r="H15" s="7">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="I15" s="7">
-        <v>98321</v>
+        <v>107241</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>316</v>
+        <v>275</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>317</v>
+        <v>276</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>318</v>
+        <v>277</v>
       </c>
       <c r="M15" s="7">
-        <v>326</v>
+        <v>253</v>
       </c>
       <c r="N15" s="7">
-        <v>356033</v>
+        <v>283728</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>319</v>
+        <v>278</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>320</v>
+        <v>279</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>321</v>
+        <v>280</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4168,46 +4178,46 @@
         <v>26</v>
       </c>
       <c r="D16" s="7">
-        <v>29356</v>
+        <v>28977</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>322</v>
+        <v>281</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>323</v>
+        <v>282</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>324</v>
+        <v>283</v>
       </c>
       <c r="H16" s="7">
         <v>19</v>
       </c>
       <c r="I16" s="7">
-        <v>21379</v>
+        <v>21619</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>325</v>
+        <v>284</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>326</v>
+        <v>71</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>327</v>
+        <v>285</v>
       </c>
       <c r="M16" s="7">
         <v>45</v>
       </c>
       <c r="N16" s="7">
-        <v>50736</v>
+        <v>50597</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>70</v>
+        <v>114</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>292</v>
+        <v>75</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>328</v>
+        <v>286</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4216,49 +4226,49 @@
         <v>40</v>
       </c>
       <c r="C17" s="7">
-        <v>345</v>
+        <v>259</v>
       </c>
       <c r="D17" s="7">
-        <v>376142</v>
+        <v>285700</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>329</v>
+        <v>287</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>330</v>
+        <v>288</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>331</v>
+        <v>289</v>
       </c>
       <c r="H17" s="7">
-        <v>246</v>
+        <v>187</v>
       </c>
       <c r="I17" s="7">
-        <v>268968</v>
+        <v>208276</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>332</v>
+        <v>290</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>333</v>
+        <v>291</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>334</v>
+        <v>292</v>
       </c>
       <c r="M17" s="7">
-        <v>591</v>
+        <v>446</v>
       </c>
       <c r="N17" s="7">
-        <v>645110</v>
+        <v>493976</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>335</v>
+        <v>293</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>336</v>
+        <v>294</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>337</v>
+        <v>295</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4267,10 +4277,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>935</v>
+        <v>689</v>
       </c>
       <c r="D18" s="7">
-        <v>1016918</v>
+        <v>757623</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>50</v>
@@ -4282,10 +4292,10 @@
         <v>50</v>
       </c>
       <c r="H18" s="7">
-        <v>940</v>
+        <v>704</v>
       </c>
       <c r="I18" s="7">
-        <v>1032184</v>
+        <v>776178</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>50</v>
@@ -4297,10 +4307,10 @@
         <v>50</v>
       </c>
       <c r="M18" s="7">
-        <v>1875</v>
+        <v>1393</v>
       </c>
       <c r="N18" s="7">
-        <v>2049102</v>
+        <v>1533801</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>50</v>
@@ -4320,49 +4330,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>246</v>
+        <v>358</v>
       </c>
       <c r="D19" s="7">
-        <v>266459</v>
+        <v>374131</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>338</v>
+        <v>296</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>339</v>
+        <v>297</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>340</v>
+        <v>298</v>
       </c>
       <c r="H19" s="7">
-        <v>403</v>
+        <v>617</v>
       </c>
       <c r="I19" s="7">
-        <v>439041</v>
+        <v>642609</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>341</v>
+        <v>299</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>342</v>
+        <v>300</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>343</v>
+        <v>301</v>
       </c>
       <c r="M19" s="7">
-        <v>649</v>
+        <v>975</v>
       </c>
       <c r="N19" s="7">
-        <v>705500</v>
+        <v>1016740</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>344</v>
+        <v>302</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>345</v>
+        <v>303</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>346</v>
+        <v>304</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4371,49 +4381,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>158</v>
+        <v>198</v>
       </c>
       <c r="D20" s="7">
-        <v>176487</v>
+        <v>208329</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>347</v>
+        <v>305</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>348</v>
+        <v>306</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>349</v>
+        <v>307</v>
       </c>
       <c r="H20" s="7">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="I20" s="7">
-        <v>107241</v>
+        <v>114120</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>350</v>
+        <v>308</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>351</v>
+        <v>309</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>352</v>
+        <v>310</v>
       </c>
       <c r="M20" s="7">
-        <v>253</v>
+        <v>304</v>
       </c>
       <c r="N20" s="7">
-        <v>283728</v>
+        <v>322449</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>83</v>
+        <v>311</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>353</v>
+        <v>312</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>354</v>
+        <v>313</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4422,49 +4432,49 @@
         <v>30</v>
       </c>
       <c r="C21" s="7">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D21" s="7">
-        <v>28977</v>
+        <v>27106</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>355</v>
+        <v>314</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>356</v>
+        <v>315</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>357</v>
+        <v>316</v>
       </c>
       <c r="H21" s="7">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I21" s="7">
-        <v>21619</v>
+        <v>17439</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="K21" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>358</v>
-      </c>
       <c r="M21" s="7">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N21" s="7">
-        <v>50597</v>
+        <v>44544</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>148</v>
+        <v>319</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>70</v>
+        <v>320</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>359</v>
+        <v>321</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4473,49 +4483,49 @@
         <v>40</v>
       </c>
       <c r="C22" s="7">
-        <v>259</v>
+        <v>327</v>
       </c>
       <c r="D22" s="7">
-        <v>285700</v>
+        <v>338173</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>360</v>
+        <v>322</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>361</v>
+        <v>323</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>362</v>
+        <v>324</v>
       </c>
       <c r="H22" s="7">
-        <v>187</v>
+        <v>262</v>
       </c>
       <c r="I22" s="7">
-        <v>208276</v>
+        <v>276748</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>363</v>
+        <v>325</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>364</v>
+        <v>326</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>365</v>
+        <v>327</v>
       </c>
       <c r="M22" s="7">
-        <v>446</v>
+        <v>589</v>
       </c>
       <c r="N22" s="7">
-        <v>493976</v>
+        <v>614920</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>366</v>
+        <v>328</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>367</v>
+        <v>329</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>368</v>
+        <v>330</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4524,10 +4534,10 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>689</v>
+        <v>910</v>
       </c>
       <c r="D23" s="7">
-        <v>757623</v>
+        <v>947739</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>50</v>
@@ -4539,10 +4549,10 @@
         <v>50</v>
       </c>
       <c r="H23" s="7">
-        <v>704</v>
+        <v>1002</v>
       </c>
       <c r="I23" s="7">
-        <v>776178</v>
+        <v>1050915</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>50</v>
@@ -4554,10 +4564,10 @@
         <v>50</v>
       </c>
       <c r="M23" s="7">
-        <v>1393</v>
+        <v>1912</v>
       </c>
       <c r="N23" s="7">
-        <v>1533801</v>
+        <v>1998654</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>50</v>
@@ -4571,55 +4581,55 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>158</v>
+        <v>3</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>358</v>
+        <v>1161</v>
       </c>
       <c r="D24" s="7">
-        <v>374131</v>
+        <v>1231874</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>369</v>
+        <v>331</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>370</v>
+        <v>332</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>371</v>
+        <v>231</v>
       </c>
       <c r="H24" s="7">
-        <v>617</v>
+        <v>2038</v>
       </c>
       <c r="I24" s="7">
-        <v>642609</v>
+        <v>2186836</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>372</v>
+        <v>333</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>373</v>
+        <v>334</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>374</v>
+        <v>335</v>
       </c>
       <c r="M24" s="7">
-        <v>975</v>
+        <v>3199</v>
       </c>
       <c r="N24" s="7">
-        <v>1016740</v>
+        <v>3418710</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>375</v>
+        <v>336</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>376</v>
+        <v>337</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>377</v>
+        <v>338</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4628,49 +4638,49 @@
         <v>20</v>
       </c>
       <c r="C25" s="7">
-        <v>198</v>
+        <v>777</v>
       </c>
       <c r="D25" s="7">
-        <v>208329</v>
+        <v>838839</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>378</v>
+        <v>339</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>379</v>
+        <v>340</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>380</v>
+        <v>341</v>
       </c>
       <c r="H25" s="7">
-        <v>106</v>
+        <v>360</v>
       </c>
       <c r="I25" s="7">
-        <v>114120</v>
+        <v>393221</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>381</v>
+        <v>342</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>382</v>
+        <v>343</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>383</v>
+        <v>344</v>
       </c>
       <c r="M25" s="7">
-        <v>304</v>
+        <v>1137</v>
       </c>
       <c r="N25" s="7">
-        <v>322449</v>
+        <v>1232059</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>384</v>
+        <v>345</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>385</v>
+        <v>346</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>386</v>
+        <v>347</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4679,49 +4689,49 @@
         <v>30</v>
       </c>
       <c r="C26" s="7">
-        <v>27</v>
+        <v>90</v>
       </c>
       <c r="D26" s="7">
-        <v>27106</v>
+        <v>95901</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>387</v>
+        <v>348</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>388</v>
+        <v>349</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>389</v>
+        <v>350</v>
       </c>
       <c r="H26" s="7">
-        <v>17</v>
+        <v>67</v>
       </c>
       <c r="I26" s="7">
-        <v>17439</v>
+        <v>73860</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>390</v>
+        <v>351</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>391</v>
+        <v>352</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>392</v>
+        <v>353</v>
       </c>
       <c r="M26" s="7">
-        <v>44</v>
+        <v>157</v>
       </c>
       <c r="N26" s="7">
-        <v>44544</v>
+        <v>169761</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>393</v>
+        <v>112</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>394</v>
+        <v>351</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>395</v>
+        <v>354</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4730,49 +4740,49 @@
         <v>40</v>
       </c>
       <c r="C27" s="7">
-        <v>327</v>
+        <v>1180</v>
       </c>
       <c r="D27" s="7">
-        <v>338173</v>
+        <v>1259135</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>396</v>
+        <v>355</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>397</v>
+        <v>356</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>398</v>
+        <v>357</v>
       </c>
       <c r="H27" s="7">
-        <v>262</v>
+        <v>831</v>
       </c>
       <c r="I27" s="7">
-        <v>276748</v>
+        <v>902410</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>399</v>
+        <v>358</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>22</v>
+        <v>359</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>400</v>
+        <v>360</v>
       </c>
       <c r="M27" s="7">
-        <v>589</v>
+        <v>2011</v>
       </c>
       <c r="N27" s="7">
-        <v>614920</v>
+        <v>2161546</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>401</v>
+        <v>361</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>402</v>
+        <v>362</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>403</v>
+        <v>363</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -4781,10 +4791,10 @@
         <v>3</v>
       </c>
       <c r="C28" s="7">
-        <v>910</v>
+        <v>3208</v>
       </c>
       <c r="D28" s="7">
-        <v>947739</v>
+        <v>3425749</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>50</v>
@@ -4796,10 +4806,10 @@
         <v>50</v>
       </c>
       <c r="H28" s="7">
-        <v>1002</v>
+        <v>3296</v>
       </c>
       <c r="I28" s="7">
-        <v>1050915</v>
+        <v>3556327</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>50</v>
@@ -4811,10 +4821,10 @@
         <v>50</v>
       </c>
       <c r="M28" s="7">
-        <v>1912</v>
+        <v>6504</v>
       </c>
       <c r="N28" s="7">
-        <v>1998654</v>
+        <v>6982076</v>
       </c>
       <c r="O28" s="7" t="s">
         <v>50</v>
@@ -4827,273 +4837,1432 @@
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C29" s="7">
-        <v>1161</v>
-      </c>
-      <c r="D29" s="7">
-        <v>1231874</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>404</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>405</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="H29" s="7">
-        <v>2038</v>
-      </c>
-      <c r="I29" s="7">
-        <v>2186836</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>406</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>408</v>
-      </c>
-      <c r="M29" s="7">
-        <v>3199</v>
-      </c>
-      <c r="N29" s="7">
-        <v>3418710</v>
-      </c>
-      <c r="O29" s="7" t="s">
-        <v>409</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>410</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A30" s="1"/>
-      <c r="B30" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C30" s="7">
-        <v>777</v>
-      </c>
-      <c r="D30" s="7">
-        <v>838839</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>412</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>413</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>414</v>
-      </c>
-      <c r="H30" s="7">
-        <v>360</v>
-      </c>
-      <c r="I30" s="7">
-        <v>393221</v>
-      </c>
-      <c r="J30" s="7" t="s">
-        <v>415</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>416</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>417</v>
-      </c>
-      <c r="M30" s="7">
-        <v>1137</v>
-      </c>
-      <c r="N30" s="7">
-        <v>1232059</v>
-      </c>
-      <c r="O30" s="7" t="s">
-        <v>418</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>419</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A31" s="1"/>
-      <c r="B31" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C31" s="7">
-        <v>90</v>
-      </c>
-      <c r="D31" s="7">
-        <v>95901</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>421</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>422</v>
-      </c>
-      <c r="H31" s="7">
-        <v>67</v>
-      </c>
-      <c r="I31" s="7">
-        <v>73860</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>423</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>424</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>425</v>
-      </c>
-      <c r="M31" s="7">
-        <v>157</v>
-      </c>
-      <c r="N31" s="7">
-        <v>169761</v>
-      </c>
-      <c r="O31" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>423</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" s="1"/>
-      <c r="B32" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C32" s="7">
-        <v>1180</v>
-      </c>
-      <c r="D32" s="7">
-        <v>1259135</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>427</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>428</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>429</v>
-      </c>
-      <c r="H32" s="7">
-        <v>831</v>
-      </c>
-      <c r="I32" s="7">
-        <v>902410</v>
-      </c>
-      <c r="J32" s="7" t="s">
-        <v>430</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>431</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>432</v>
-      </c>
-      <c r="M32" s="7">
-        <v>2011</v>
-      </c>
-      <c r="N32" s="7">
-        <v>2161546</v>
-      </c>
-      <c r="O32" s="7" t="s">
-        <v>433</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>434</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A33" s="1"/>
-      <c r="B33" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C33" s="7">
-        <v>3208</v>
-      </c>
-      <c r="D33" s="7">
-        <v>3425749</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="H33" s="7">
-        <v>3296</v>
-      </c>
-      <c r="I33" s="7">
-        <v>3556327</v>
-      </c>
-      <c r="J33" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="K33" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="L33" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="M33" s="7">
-        <v>6504</v>
-      </c>
-      <c r="N33" s="7">
-        <v>6982076</v>
-      </c>
-      <c r="O33" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="P33" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q33" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>231</v>
+      <c r="A29" t="s">
+        <v>194</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A14:A18"/>
     <mergeCell ref="A19:A23"/>
     <mergeCell ref="A24:A28"/>
-    <mergeCell ref="A29:A33"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A4:A8"/>
+    <mergeCell ref="A9:A13"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D40CCB6-C3D7-489C-A19F-2F3F858B2DB2}">
+  <dimension ref="A1:Q29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" sqref="A1:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="17" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="4"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="7">
+        <v>280</v>
+      </c>
+      <c r="D4" s="7">
+        <v>285143</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="H4" s="7">
+        <v>431</v>
+      </c>
+      <c r="I4" s="7">
+        <v>437198</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="M4" s="7">
+        <v>711</v>
+      </c>
+      <c r="N4" s="7">
+        <v>722341</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="Q4" s="7" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="7">
+        <v>135</v>
+      </c>
+      <c r="D5" s="7">
+        <v>139106</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="H5" s="7">
+        <v>65</v>
+      </c>
+      <c r="I5" s="7">
+        <v>65169</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="M5" s="7">
+        <v>200</v>
+      </c>
+      <c r="N5" s="7">
+        <v>204275</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="Q5" s="7" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="7">
+        <v>17</v>
+      </c>
+      <c r="D6" s="7">
+        <v>17902</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="H6" s="7">
+        <v>11</v>
+      </c>
+      <c r="I6" s="7">
+        <v>9898</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="M6" s="7">
+        <v>28</v>
+      </c>
+      <c r="N6" s="7">
+        <v>27800</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="Q6" s="7" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="7">
+        <v>220</v>
+      </c>
+      <c r="D7" s="7">
+        <v>232649</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="H7" s="7">
+        <v>158</v>
+      </c>
+      <c r="I7" s="7">
+        <v>159465</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="M7" s="7">
+        <v>378</v>
+      </c>
+      <c r="N7" s="7">
+        <v>392114</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="Q7" s="7" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="7">
+        <v>652</v>
+      </c>
+      <c r="D8" s="7">
+        <v>674800</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H8" s="7">
+        <v>665</v>
+      </c>
+      <c r="I8" s="7">
+        <v>671730</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="M8" s="7">
+        <v>1317</v>
+      </c>
+      <c r="N8" s="7">
+        <v>1346530</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q8" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="7">
+        <v>438</v>
+      </c>
+      <c r="D9" s="7">
+        <v>465929</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="H9" s="7">
+        <v>614</v>
+      </c>
+      <c r="I9" s="7">
+        <v>666129</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="M9" s="7">
+        <v>1052</v>
+      </c>
+      <c r="N9" s="7">
+        <v>1132058</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="Q9" s="7" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" s="1"/>
+      <c r="B10" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="7">
+        <v>204</v>
+      </c>
+      <c r="D10" s="7">
+        <v>215642</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="H10" s="7">
+        <v>101</v>
+      </c>
+      <c r="I10" s="7">
+        <v>104928</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="M10" s="7">
+        <v>305</v>
+      </c>
+      <c r="N10" s="7">
+        <v>320570</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q10" s="7" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="7">
+        <v>24</v>
+      </c>
+      <c r="D11" s="7">
+        <v>27762</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="H11" s="7">
+        <v>22</v>
+      </c>
+      <c r="I11" s="7">
+        <v>22697</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="M11" s="7">
+        <v>46</v>
+      </c>
+      <c r="N11" s="7">
+        <v>50459</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="Q11" s="7" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" s="1"/>
+      <c r="B12" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="7">
+        <v>284</v>
+      </c>
+      <c r="D12" s="7">
+        <v>312026</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="H12" s="7">
+        <v>239</v>
+      </c>
+      <c r="I12" s="7">
+        <v>248231</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="M12" s="7">
+        <v>523</v>
+      </c>
+      <c r="N12" s="7">
+        <v>560258</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="Q12" s="7" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13" s="1"/>
+      <c r="B13" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="7">
+        <v>950</v>
+      </c>
+      <c r="D13" s="7">
+        <v>1021359</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H13" s="7">
+        <v>976</v>
+      </c>
+      <c r="I13" s="7">
+        <v>1041985</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="M13" s="7">
+        <v>1926</v>
+      </c>
+      <c r="N13" s="7">
+        <v>2063344</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q13" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="7">
+        <v>280</v>
+      </c>
+      <c r="D14" s="7">
+        <v>302069</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="H14" s="7">
+        <v>436</v>
+      </c>
+      <c r="I14" s="7">
+        <v>473927</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="M14" s="7">
+        <v>716</v>
+      </c>
+      <c r="N14" s="7">
+        <v>775996</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q14" s="7" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="7">
+        <v>136</v>
+      </c>
+      <c r="D15" s="7">
+        <v>144517</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="H15" s="7">
+        <v>79</v>
+      </c>
+      <c r="I15" s="7">
+        <v>82166</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="M15" s="7">
+        <v>215</v>
+      </c>
+      <c r="N15" s="7">
+        <v>226683</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1"/>
+      <c r="B16" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="7">
+        <v>17</v>
+      </c>
+      <c r="D16" s="7">
+        <v>18082</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="H16" s="7">
+        <v>17</v>
+      </c>
+      <c r="I16" s="7">
+        <v>17593</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="M16" s="7">
+        <v>34</v>
+      </c>
+      <c r="N16" s="7">
+        <v>35675</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="7">
+        <v>262</v>
+      </c>
+      <c r="D17" s="7">
+        <v>294020</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="H17" s="7">
+        <v>202</v>
+      </c>
+      <c r="I17" s="7">
+        <v>209209</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="M17" s="7">
+        <v>464</v>
+      </c>
+      <c r="N17" s="7">
+        <v>503228</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
+        <v>695</v>
+      </c>
+      <c r="D18" s="7">
+        <v>758688</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H18" s="7">
+        <v>734</v>
+      </c>
+      <c r="I18" s="7">
+        <v>782895</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="M18" s="7">
+        <v>1429</v>
+      </c>
+      <c r="N18" s="7">
+        <v>1541582</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="7">
+        <v>448</v>
+      </c>
+      <c r="D19" s="7">
+        <v>451596</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="H19" s="7">
+        <v>592</v>
+      </c>
+      <c r="I19" s="7">
+        <v>650194</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="M19" s="7">
+        <v>1040</v>
+      </c>
+      <c r="N19" s="7">
+        <v>1101790</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="Q19" s="7" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" s="1"/>
+      <c r="B20" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="7">
+        <v>201</v>
+      </c>
+      <c r="D20" s="7">
+        <v>198679</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="H20" s="7">
+        <v>120</v>
+      </c>
+      <c r="I20" s="7">
+        <v>134916</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>474</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="M20" s="7">
+        <v>321</v>
+      </c>
+      <c r="N20" s="7">
+        <v>333595</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>477</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="Q20" s="7" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="7">
+        <v>30</v>
+      </c>
+      <c r="D21" s="7">
+        <v>29618</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>481</v>
+      </c>
+      <c r="H21" s="7">
+        <v>22</v>
+      </c>
+      <c r="I21" s="7">
+        <v>24216</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="L21" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="M21" s="7">
+        <v>52</v>
+      </c>
+      <c r="N21" s="7">
+        <v>53835</v>
+      </c>
+      <c r="O21" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="Q21" s="7" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" s="1"/>
+      <c r="B22" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="7">
+        <v>253</v>
+      </c>
+      <c r="D22" s="7">
+        <v>257674</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="H22" s="7">
+        <v>224</v>
+      </c>
+      <c r="I22" s="7">
+        <v>233168</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>488</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>490</v>
+      </c>
+      <c r="M22" s="7">
+        <v>477</v>
+      </c>
+      <c r="N22" s="7">
+        <v>490842</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>491</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>492</v>
+      </c>
+      <c r="Q22" s="7" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
+      <c r="B23" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="7">
+        <v>932</v>
+      </c>
+      <c r="D23" s="7">
+        <v>937567</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H23" s="7">
+        <v>958</v>
+      </c>
+      <c r="I23" s="7">
+        <v>1042494</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="M23" s="7">
+        <v>1890</v>
+      </c>
+      <c r="N23" s="7">
+        <v>1980061</v>
+      </c>
+      <c r="O23" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q23" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="7">
+        <v>1446</v>
+      </c>
+      <c r="D24" s="7">
+        <v>1504736</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>494</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>496</v>
+      </c>
+      <c r="H24" s="7">
+        <v>2073</v>
+      </c>
+      <c r="I24" s="7">
+        <v>2227448</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>497</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>498</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="M24" s="7">
+        <v>3519</v>
+      </c>
+      <c r="N24" s="7">
+        <v>3732184</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1"/>
+      <c r="B25" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" s="7">
+        <v>676</v>
+      </c>
+      <c r="D25" s="7">
+        <v>697944</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>502</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>503</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>504</v>
+      </c>
+      <c r="H25" s="7">
+        <v>365</v>
+      </c>
+      <c r="I25" s="7">
+        <v>387179</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>505</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>506</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>507</v>
+      </c>
+      <c r="M25" s="7">
+        <v>1041</v>
+      </c>
+      <c r="N25" s="7">
+        <v>1085124</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>508</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>509</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" s="7">
+        <v>88</v>
+      </c>
+      <c r="D26" s="7">
+        <v>93364</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>511</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>512</v>
+      </c>
+      <c r="H26" s="7">
+        <v>72</v>
+      </c>
+      <c r="I26" s="7">
+        <v>74404</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="M26" s="7">
+        <v>160</v>
+      </c>
+      <c r="N26" s="7">
+        <v>167768</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>514</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" s="7">
+        <v>1019</v>
+      </c>
+      <c r="D27" s="7">
+        <v>1096370</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>516</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>517</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>518</v>
+      </c>
+      <c r="H27" s="7">
+        <v>823</v>
+      </c>
+      <c r="I27" s="7">
+        <v>850072</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>519</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>520</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>521</v>
+      </c>
+      <c r="M27" s="7">
+        <v>1842</v>
+      </c>
+      <c r="N27" s="7">
+        <v>1946442</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>522</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>523</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="1"/>
+      <c r="B28" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" s="7">
+        <v>3229</v>
+      </c>
+      <c r="D28" s="7">
+        <v>3392414</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H28" s="7">
+        <v>3333</v>
+      </c>
+      <c r="I28" s="7">
+        <v>3539103</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="M28" s="7">
+        <v>6562</v>
+      </c>
+      <c r="N28" s="7">
+        <v>6931517</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q28" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>194</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="A19:A23"/>
+    <mergeCell ref="A24:A28"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>

--- a/data/trans_orig/P23-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P23-Habitat-trans_orig.xlsx
@@ -545,7 +545,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población según consumo de tabaco y/o marihuana/hachís, actual o pasado (2007/2012/2016) en 2007</t>
+          <t>Población según el consumo de tabaco y/o marihuana/hachís, actual o pasado en 2007</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -3630,7 +3630,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población según consumo de tabaco y/o marihuana/hachís, actual o pasado (2007/2012/2016) en 2012</t>
+          <t>Población según el consumo de tabaco y/o marihuana/hachís, actual o pasado en 2012</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -6715,7 +6715,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población según consumo de tabaco y/o marihuana/hachís, actual o pasado (2007/2012/2016) en 2016</t>
+          <t>Población según el consumo de tabaco y/o marihuana/hachís, actual o pasado en 2016</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
